--- a/static/Models/Regression/Equation/Service Sector.xlsx
+++ b/static/Models/Regression/Equation/Service Sector.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-23</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02008778043091297</v>
+        <v>0.01825312338769436</v>
       </c>
       <c r="C2">
-        <v>-0.04046403616666794</v>
+        <v>-0.03752908855676651</v>
       </c>
       <c r="D2">
-        <v>-0.003934322390705347</v>
+        <v>0.0001652548817219213</v>
       </c>
       <c r="E2">
-        <v>0.01022688392549753</v>
+        <v>0.009101871401071548</v>
       </c>
       <c r="F2">
-        <v>0.0040068244561553</v>
+        <v>0.006159906275570393</v>
       </c>
       <c r="G2">
-        <v>-0.02675181999802589</v>
+        <v>-0.02902652509510517</v>
       </c>
       <c r="H2">
-        <v>0.01003938354551792</v>
+        <v>0.00689666485413909</v>
       </c>
       <c r="I2">
-        <v>0.01483603566884995</v>
+        <v>0.01399618852883577</v>
       </c>
       <c r="J2">
-        <v>-0.06256289035081863</v>
+        <v>-0.06739361584186554</v>
       </c>
       <c r="K2">
-        <v>0.0004616284859366715</v>
+        <v>-0.004853753373026848</v>
       </c>
       <c r="L2">
-        <v>-0.01184527017176151</v>
+        <v>-0.01637169159948826</v>
       </c>
       <c r="M2">
-        <v>0.00141442462336272</v>
+        <v>0.00195694575086236</v>
       </c>
       <c r="N2">
-        <v>-0.01006185449659824</v>
+        <v>-0.0124706607311964</v>
       </c>
       <c r="O2">
-        <v>-0.004432001616805792</v>
+        <v>-8.492190681863576E-05</v>
       </c>
       <c r="P2">
-        <v>-0.0454624705016613</v>
+        <v>-0.04573261365294456</v>
       </c>
       <c r="Q2">
-        <v>0.04712413623929024</v>
+        <v>0.05053475126624107</v>
       </c>
       <c r="R2">
-        <v>-0.005088213831186295</v>
+        <v>-0.009578404016792774</v>
       </c>
       <c r="S2">
-        <v>-0.01219028048217297</v>
+        <v>-0.006711078342050314</v>
       </c>
       <c r="T2">
-        <v>-0.1100708097219467</v>
+        <v>-0.1126388683915138</v>
       </c>
       <c r="U2">
-        <v>-0.07035869359970093</v>
+        <v>-0.0694044828414917</v>
       </c>
       <c r="V2">
-        <v>0.0009791238699108362</v>
+        <v>-0.003382416674867272</v>
       </c>
       <c r="W2">
-        <v>-0.04411300271749496</v>
+        <v>-0.04396562278270721</v>
       </c>
       <c r="X2">
-        <v>0.006415180396288633</v>
+        <v>0.005001174286007881</v>
       </c>
       <c r="Y2">
-        <v>-0.086007259786129</v>
+        <v>-0.08769262582063675</v>
       </c>
       <c r="Z2">
-        <v>0.03088515251874924</v>
+        <v>0.03268633410334587</v>
       </c>
       <c r="AA2">
-        <v>0.01077590882778168</v>
+        <v>0.01191314961761236</v>
       </c>
       <c r="AB2">
-        <v>0.1045937314629555</v>
+        <v>0.1067500934004784</v>
       </c>
       <c r="AC2">
-        <v>0.02584449388086796</v>
+        <v>0.02212246134877205</v>
       </c>
       <c r="AD2">
-        <v>-0.1002218425273895</v>
+        <v>-0.1010944843292236</v>
       </c>
       <c r="AE2">
-        <v>-0.1224013939499855</v>
+        <v>-0.1249788030982018</v>
       </c>
       <c r="AF2">
-        <v>-0.01982927694916725</v>
+        <v>-0.01281100232154131</v>
       </c>
       <c r="AG2">
-        <v>-0.02170991152524948</v>
+        <v>-0.02113904803991318</v>
       </c>
       <c r="AH2">
-        <v>0.1338719129562378</v>
+        <v>0.1291927397251129</v>
       </c>
       <c r="AI2">
-        <v>0.003219325561076403</v>
+        <v>0.004125310108065605</v>
       </c>
       <c r="AJ2">
-        <v>-0.0001585904392413795</v>
+        <v>0.002927685854956508</v>
       </c>
       <c r="AK2">
-        <v>0.02344292774796486</v>
+        <v>0.02230108715593815</v>
       </c>
       <c r="AL2">
-        <v>0.008901198394596577</v>
+        <v>0.007972278632223606</v>
       </c>
       <c r="AM2">
-        <v>-0.1143494322896004</v>
+        <v>-0.1138752847909927</v>
       </c>
       <c r="AN2">
-        <v>0.04641516134142876</v>
+        <v>0.04413139447569847</v>
       </c>
       <c r="AO2">
-        <v>-0.07674162834882736</v>
+        <v>-0.07864847034215927</v>
       </c>
       <c r="AP2">
-        <v>0.03785445913672447</v>
+        <v>0.03273758292198181</v>
       </c>
       <c r="AQ2">
-        <v>0.001607176847755909</v>
+        <v>0.004199906717985868</v>
       </c>
       <c r="AR2">
-        <v>-0.06145130470395088</v>
+        <v>-0.06375077366828918</v>
       </c>
       <c r="AS2">
-        <v>-0.005144072230905294</v>
+        <v>-0.006461459212005138</v>
       </c>
       <c r="AT2">
-        <v>0.04246343672275543</v>
+        <v>0.04159490019083023</v>
       </c>
       <c r="AU2">
-        <v>0.007823715917766094</v>
+        <v>0.0123330382630229</v>
       </c>
       <c r="AV2">
-        <v>0.004217690322548151</v>
+        <v>0.0005057128146290779</v>
       </c>
       <c r="AW2">
-        <v>-0.01626930013298988</v>
+        <v>-0.01167864259332418</v>
       </c>
       <c r="AX2">
-        <v>0.03787660598754883</v>
+        <v>0.03995075449347496</v>
       </c>
       <c r="AY2">
-        <v>-0.1358808577060699</v>
+        <v>-0.1398958712816238</v>
       </c>
       <c r="AZ2">
-        <v>-0.0165309552103281</v>
+        <v>-0.01533297169953585</v>
       </c>
       <c r="BA2">
-        <v>0.02733894810080528</v>
+        <v>0.02871041372418404</v>
       </c>
       <c r="BB2">
-        <v>0.0754779577255249</v>
+        <v>0.07667037099599838</v>
       </c>
       <c r="BC2">
-        <v>-0.001549161155708134</v>
+        <v>-0.002682930557057261</v>
       </c>
       <c r="BD2">
-        <v>0.1816897541284561</v>
+        <v>0.180760383605957</v>
       </c>
       <c r="BE2">
-        <v>-0.005984148010611534</v>
+        <v>-0.008102862164378166</v>
       </c>
       <c r="BF2">
-        <v>-0.02337248064577579</v>
+        <v>-0.02150014974176884</v>
       </c>
       <c r="BG2">
-        <v>-0.05307003483176231</v>
+        <v>-0.05454370379447937</v>
       </c>
       <c r="BH2">
-        <v>-0.01146006211638451</v>
+        <v>-0.005133181810379028</v>
       </c>
       <c r="BI2">
-        <v>0.1085632145404816</v>
+        <v>0.1047559753060341</v>
       </c>
       <c r="BJ2">
-        <v>0.02419725805521011</v>
+        <v>0.02087007835507393</v>
       </c>
       <c r="BK2">
-        <v>-0.005655712448060513</v>
+        <v>-0.004738070070743561</v>
       </c>
       <c r="BL2">
-        <v>-0.006327955517917871</v>
+        <v>-0.007196674589067698</v>
       </c>
       <c r="BM2">
-        <v>0.09586439281702042</v>
+        <v>0.09106794744729996</v>
       </c>
       <c r="BN2">
-        <v>0.003852573223412037</v>
+        <v>0.004847219213843346</v>
       </c>
       <c r="BO2">
-        <v>0.03091177903115749</v>
+        <v>0.03132021799683571</v>
       </c>
       <c r="BP2">
-        <v>0.0115262707695365</v>
+        <v>0.007724147289991379</v>
       </c>
       <c r="BQ2">
-        <v>-0.0151132745668292</v>
+        <v>-0.009497382678091526</v>
       </c>
       <c r="BR2">
-        <v>-0.004256823100149632</v>
+        <v>0.0001104725961340591</v>
       </c>
       <c r="BS2">
-        <v>0.0023261324968189</v>
+        <v>0.001698617590591311</v>
       </c>
       <c r="BT2">
-        <v>-0.005108945537358522</v>
+        <v>-0.004505778662860394</v>
       </c>
       <c r="BU2">
-        <v>0.01873894594609737</v>
+        <v>0.01682441309094429</v>
       </c>
       <c r="BV2">
-        <v>-0.05568243935704231</v>
+        <v>-0.05679255723953247</v>
       </c>
       <c r="BW2">
-        <v>-0.0007930976571515203</v>
+        <v>0.005513768177479506</v>
       </c>
       <c r="BX2">
-        <v>0.08072816580533981</v>
+        <v>0.07612079381942749</v>
       </c>
       <c r="BY2">
-        <v>-0.01451029814779758</v>
+        <v>-0.01181404385715723</v>
       </c>
       <c r="BZ2">
-        <v>0.03329174220561981</v>
+        <v>0.02818815037608147</v>
       </c>
       <c r="CA2">
-        <v>-0.0218450091779232</v>
+        <v>-0.01753870956599712</v>
       </c>
       <c r="CB2">
-        <v>-0.08833356201648712</v>
+        <v>-0.08912039548158646</v>
       </c>
       <c r="CC2">
-        <v>0.009649604558944702</v>
+        <v>0.008147077634930611</v>
       </c>
       <c r="CD2">
-        <v>0.002852623118087649</v>
+        <v>0.006926491390913725</v>
       </c>
       <c r="CE2">
-        <v>0.03628227487206459</v>
+        <v>0.03260035812854767</v>
       </c>
       <c r="CF2">
-        <v>0.01688246987760067</v>
+        <v>0.01168850995600224</v>
       </c>
       <c r="CG2">
-        <v>-0.01480340026319027</v>
+        <v>-0.01501029822975397</v>
       </c>
       <c r="CH2">
-        <v>-0.08470213413238525</v>
+        <v>-0.07844571769237518</v>
       </c>
       <c r="CI2">
-        <v>0.04465870559215546</v>
+        <v>0.04454086720943451</v>
       </c>
       <c r="CJ2">
-        <v>-0.1783456802368164</v>
+        <v>-0.1848368495702744</v>
       </c>
       <c r="CK2">
-        <v>0.01778442785143852</v>
+        <v>0.01689676567912102</v>
       </c>
       <c r="CL2">
-        <v>-0.01304016541689634</v>
+        <v>-0.01424836833029985</v>
       </c>
       <c r="CM2">
-        <v>0.02925177291035652</v>
+        <v>0.02581548132002354</v>
       </c>
       <c r="CN2">
-        <v>-0.004052972421050072</v>
+        <v>-0.004043078515678644</v>
       </c>
       <c r="CO2">
-        <v>-0.009403953328728676</v>
+        <v>-0.009125867858529091</v>
       </c>
       <c r="CP2">
-        <v>-0.02671996504068375</v>
+        <v>-0.02238683588802814</v>
       </c>
       <c r="CQ2">
-        <v>-0.01825655624270439</v>
+        <v>-0.01773694716393948</v>
       </c>
       <c r="CR2">
-        <v>0.007882291451096535</v>
+        <v>0.01114064641296864</v>
       </c>
       <c r="CS2">
-        <v>0.01393726002424955</v>
+        <v>0.0131595591083169</v>
       </c>
       <c r="CT2">
-        <v>0.0002044258872047067</v>
+        <v>-0.001388546545058489</v>
       </c>
       <c r="CU2">
-        <v>-0.02449389733374119</v>
+        <v>-0.01977205462753773</v>
       </c>
       <c r="CV2">
-        <v>-0.002848774427548051</v>
+        <v>0.0001214387812069617</v>
       </c>
       <c r="CW2">
-        <v>-0.05578498542308807</v>
+        <v>-0.05303115397691727</v>
       </c>
       <c r="CX2">
-        <v>0.01173027791082859</v>
+        <v>0.0177072212100029</v>
       </c>
       <c r="CY2">
-        <v>-0.03062292002141476</v>
+        <v>-0.02606823109090328</v>
       </c>
       <c r="CZ2">
-        <v>-0.003067640820518136</v>
+        <v>-0.003052759449928999</v>
       </c>
       <c r="DA2">
-        <v>-0.1172046139836311</v>
+        <v>-0.1132686138153076</v>
       </c>
       <c r="DB2">
-        <v>-0.06965477764606476</v>
+        <v>-0.07054931670427322</v>
       </c>
       <c r="DC2">
-        <v>-0.006842683535069227</v>
+        <v>-0.006336209829896688</v>
       </c>
       <c r="DD2">
-        <v>-0.01899502612650394</v>
+        <v>-0.02385178953409195</v>
       </c>
       <c r="DE2">
-        <v>-0.001702090725302696</v>
+        <v>-0.002565198112279177</v>
       </c>
       <c r="DF2">
-        <v>-0.07370157539844513</v>
+        <v>-0.07585550099611282</v>
       </c>
       <c r="DG2">
-        <v>3.334044595248997E-05</v>
+        <v>0.00372980022802949</v>
       </c>
       <c r="DH2">
-        <v>0.03805343806743622</v>
+        <v>0.03553463891148567</v>
       </c>
       <c r="DI2">
-        <v>-0.01802311465144157</v>
+        <v>-0.02308663167059422</v>
       </c>
       <c r="DJ2">
-        <v>0.02552092261612415</v>
+        <v>0.02957334369421005</v>
       </c>
       <c r="DK2">
-        <v>-0.0377262607216835</v>
+        <v>-0.0440591424703598</v>
       </c>
       <c r="DL2">
-        <v>-0.1301888823509216</v>
+        <v>-0.1333420276641846</v>
       </c>
       <c r="DM2">
-        <v>0.05349044874310493</v>
+        <v>0.05025762692093849</v>
       </c>
       <c r="DN2">
-        <v>0.0128865335136652</v>
+        <v>0.01114821061491966</v>
       </c>
       <c r="DO2">
-        <v>0.01631179079413414</v>
+        <v>0.0168286319822073</v>
       </c>
       <c r="DP2">
-        <v>0.03667211160063744</v>
+        <v>0.03441530838608742</v>
       </c>
       <c r="DQ2">
-        <v>0.008010734803974628</v>
+        <v>0.006891235243529081</v>
       </c>
       <c r="DR2">
-        <v>0.009242515079677105</v>
+        <v>0.005628066137433052</v>
       </c>
       <c r="DS2">
-        <v>0.07105285674333572</v>
+        <v>0.07121498137712479</v>
       </c>
       <c r="DT2">
-        <v>-0.03441421687602997</v>
+        <v>-0.03469685465097427</v>
       </c>
       <c r="DU2">
-        <v>-0.009908348321914673</v>
+        <v>-0.01175842247903347</v>
       </c>
       <c r="DV2">
-        <v>-0.00462673744186759</v>
+        <v>-0.004766581114381552</v>
       </c>
       <c r="DW2">
-        <v>0.0009070556261576712</v>
+        <v>0.004240290261805058</v>
       </c>
       <c r="DX2">
-        <v>0.08078343421220779</v>
+        <v>0.07909102737903595</v>
       </c>
       <c r="DY2">
-        <v>-0.008112733252346516</v>
+        <v>-0.01426896918565035</v>
       </c>
       <c r="DZ2">
-        <v>-0.006813787389546633</v>
+        <v>-0.008295565843582153</v>
       </c>
       <c r="EA2">
-        <v>0.1840899139642715</v>
+        <v>0.1834098845720291</v>
       </c>
       <c r="EB2">
-        <v>-0.09184372425079346</v>
+        <v>-0.09287790209054947</v>
       </c>
       <c r="EC2">
-        <v>-0.005800646264106035</v>
+        <v>-0.005385715514421463</v>
       </c>
       <c r="ED2">
-        <v>0.1402852088212967</v>
+        <v>0.1374881714582443</v>
       </c>
       <c r="EE2">
-        <v>-0.02038715407252312</v>
+        <v>-0.02128800749778748</v>
       </c>
       <c r="EF2">
-        <v>-0.08625491708517075</v>
+        <v>-0.08722136914730072</v>
       </c>
       <c r="EG2">
-        <v>0.01946987584233284</v>
+        <v>0.02131064981222153</v>
       </c>
       <c r="EH2">
-        <v>0.01970678940415382</v>
+        <v>0.01423375308513641</v>
       </c>
       <c r="EI2">
-        <v>0.06395021080970764</v>
+        <v>0.05882135406136513</v>
       </c>
       <c r="EJ2">
-        <v>0.04949476942420006</v>
+        <v>0.0499657429754734</v>
       </c>
       <c r="EK2">
-        <v>0.01047645043581724</v>
+        <v>0.00887571182101965</v>
       </c>
       <c r="EL2">
-        <v>0.006562022026628256</v>
+        <v>0.006641004234552383</v>
       </c>
       <c r="EM2">
-        <v>-0.03339961543679237</v>
+        <v>-0.03532729297876358</v>
       </c>
       <c r="EN2">
-        <v>-0.04257714748382568</v>
+        <v>-0.04803552851080894</v>
       </c>
       <c r="EO2">
-        <v>0.0675562247633934</v>
+        <v>0.06683285534381866</v>
       </c>
       <c r="EP2">
-        <v>0.01759726367890835</v>
+        <v>0.01863142289221287</v>
       </c>
       <c r="EQ2">
-        <v>0.03141333162784576</v>
+        <v>0.03252975270152092</v>
       </c>
       <c r="ER2">
-        <v>0.003449466545134783</v>
+        <v>0.001150604803115129</v>
       </c>
       <c r="ES2">
-        <v>-0.08407892286777496</v>
+        <v>-0.08898120373487473</v>
       </c>
       <c r="ET2">
-        <v>0.03265271708369255</v>
+        <v>0.02948527224361897</v>
       </c>
       <c r="EU2">
-        <v>-0.05302055925130844</v>
+        <v>-0.05649257823824883</v>
       </c>
       <c r="EV2">
-        <v>-0.176878497004509</v>
+        <v>-0.1825587749481201</v>
       </c>
       <c r="EW2">
-        <v>0.1319405734539032</v>
+        <v>0.1297533214092255</v>
       </c>
       <c r="EX2">
-        <v>-0.01789510250091553</v>
+        <v>-0.01845171488821507</v>
       </c>
       <c r="EY2">
-        <v>0.02276513539254665</v>
+        <v>0.02059823274612427</v>
       </c>
       <c r="EZ2">
-        <v>-0.1695405393838882</v>
+        <v>-0.1748123317956924</v>
       </c>
       <c r="FA2">
-        <v>-0.01532744243741035</v>
+        <v>-0.02145761251449585</v>
       </c>
       <c r="FB2">
-        <v>-0.005274940747767687</v>
+        <v>-0.006440958008170128</v>
       </c>
       <c r="FC2">
-        <v>0.01322315912693739</v>
+        <v>0.01220383029431105</v>
       </c>
       <c r="FD2">
-        <v>0.004591119941323996</v>
+        <v>0.004816742148250341</v>
       </c>
       <c r="FE2">
-        <v>-0.04375676065683365</v>
+        <v>-0.04541562870144844</v>
       </c>
       <c r="FF2">
-        <v>-0.06513083726167679</v>
+        <v>-0.06892002373933792</v>
       </c>
       <c r="FG2">
-        <v>-0.107798308134079</v>
+        <v>-0.1016314327716827</v>
       </c>
       <c r="FH2">
-        <v>0.01003876142203808</v>
+        <v>0.01561030559241772</v>
       </c>
       <c r="FI2">
-        <v>0.01844458281993866</v>
+        <v>0.02273687906563282</v>
       </c>
       <c r="FJ2">
-        <v>0.01580436900258064</v>
+        <v>0.01862228102982044</v>
       </c>
       <c r="FK2">
-        <v>0.06750363856554031</v>
+        <v>0.06766156107187271</v>
       </c>
       <c r="FL2">
-        <v>-0.06114477291703224</v>
+        <v>-0.06331326812505722</v>
       </c>
       <c r="FM2">
-        <v>0.03155126795172691</v>
+        <v>0.02853605896234512</v>
       </c>
       <c r="FN2">
-        <v>0.02716052159667015</v>
+        <v>0.02616256102919579</v>
       </c>
       <c r="FO2">
-        <v>-0.005582531448453665</v>
+        <v>-0.009132958948612213</v>
       </c>
       <c r="FP2">
-        <v>0.003150294534862041</v>
+        <v>0.001354141626507044</v>
       </c>
       <c r="FQ2">
-        <v>0.0009542146581225097</v>
+        <v>0.001184804947115481</v>
       </c>
       <c r="FR2">
-        <v>0.006456285249441862</v>
+        <v>0.005477257072925568</v>
       </c>
       <c r="FS2">
-        <v>0.005499750841408968</v>
+        <v>0.004243123810738325</v>
       </c>
       <c r="FT2">
-        <v>-0.006223900243639946</v>
+        <v>-0.005359521601349115</v>
       </c>
       <c r="FU2">
-        <v>-0.009377592243254185</v>
+        <v>-0.0124470004811883</v>
       </c>
       <c r="FV2">
-        <v>-0.0419747419655323</v>
+        <v>-0.04345453903079033</v>
       </c>
       <c r="FW2">
-        <v>-0.0527910441160202</v>
+        <v>-0.05662160366773605</v>
       </c>
       <c r="FX2">
-        <v>0.0107184024527669</v>
+        <v>0.01160152908414602</v>
       </c>
       <c r="FY2">
-        <v>0.001412665820680559</v>
+        <v>0.0003066033241339028</v>
       </c>
       <c r="FZ2">
-        <v>-0.009760282933712006</v>
+        <v>-0.01488090492784977</v>
       </c>
       <c r="GA2">
-        <v>-0.06357584893703461</v>
+        <v>-0.06598898768424988</v>
       </c>
       <c r="GB2">
-        <v>-0.0007931620348244905</v>
+        <v>0.00115905434358865</v>
       </c>
       <c r="GC2">
-        <v>-0.01373535115271807</v>
+        <v>-0.01165841426700354</v>
       </c>
       <c r="GD2">
-        <v>0.008538356050848961</v>
+        <v>0.01370099373161793</v>
       </c>
       <c r="GE2">
-        <v>-0.008610475808382034</v>
+        <v>-0.008601631969213486</v>
       </c>
       <c r="GF2">
-        <v>-0.03984130918979645</v>
+        <v>-0.04581331089138985</v>
       </c>
       <c r="GG2">
-        <v>-0.01337547414004803</v>
+        <v>-0.01905815675854683</v>
       </c>
       <c r="GH2">
-        <v>0.0006006337353028357</v>
+        <v>0.0002432279143249616</v>
       </c>
       <c r="GI2">
-        <v>-0.04807688668370247</v>
+        <v>-0.05107440426945686</v>
       </c>
       <c r="GJ2">
-        <v>0.01999865844845772</v>
+        <v>0.02048126421868801</v>
       </c>
       <c r="GK2">
-        <v>-0.004259640816599131</v>
+        <v>0.002295219572260976</v>
       </c>
       <c r="GL2">
-        <v>-0.08309141546487808</v>
+        <v>-0.08376133441925049</v>
       </c>
       <c r="GM2">
-        <v>0.08480364084243774</v>
+        <v>0.08692901581525803</v>
       </c>
       <c r="GN2">
-        <v>0.003717770799994469</v>
+        <v>0.005236936267465353</v>
       </c>
       <c r="GO2">
-        <v>0.1014241948723793</v>
+        <v>0.09933962672948837</v>
       </c>
       <c r="GP2">
-        <v>-0.08319508284330368</v>
+        <v>-0.0844026580452919</v>
       </c>
       <c r="GQ2">
-        <v>-0.00898393802344799</v>
+        <v>-0.00765986880287528</v>
       </c>
       <c r="GR2">
-        <v>0.01229575648903847</v>
+        <v>0.003916311543434858</v>
       </c>
       <c r="GS2">
-        <v>-0.06074295192956924</v>
+        <v>-0.05996505916118622</v>
       </c>
       <c r="GT2">
-        <v>0.001385048613883555</v>
+        <v>0.005868454463779926</v>
       </c>
       <c r="GU2">
-        <v>-0.01760500110685825</v>
+        <v>-0.01321431715041399</v>
       </c>
       <c r="GV2">
-        <v>0.009781369939446449</v>
+        <v>0.003506911918520927</v>
       </c>
       <c r="GW2">
-        <v>0.0139697790145874</v>
+        <v>0.009961897507309914</v>
       </c>
       <c r="GX2">
-        <v>-0.005111237056553364</v>
+        <v>-0.004729277454316616</v>
       </c>
       <c r="GY2">
-        <v>0.005866243038326502</v>
+        <v>0.005048075690865517</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Service Sector.xlsx
+++ b/static/Models/Regression/Equation/Service Sector.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-22</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.01825312338769436</v>
+        <v>0.02008778043091297</v>
       </c>
       <c r="C2">
-        <v>-0.03752908855676651</v>
+        <v>-0.04046403616666794</v>
       </c>
       <c r="D2">
-        <v>0.0001652548817219213</v>
+        <v>-0.003934322390705347</v>
       </c>
       <c r="E2">
-        <v>0.009101871401071548</v>
+        <v>0.01022688392549753</v>
       </c>
       <c r="F2">
-        <v>0.006159906275570393</v>
+        <v>0.0040068244561553</v>
       </c>
       <c r="G2">
-        <v>-0.02902652509510517</v>
+        <v>-0.02675181999802589</v>
       </c>
       <c r="H2">
-        <v>0.00689666485413909</v>
+        <v>0.01003938354551792</v>
       </c>
       <c r="I2">
-        <v>0.01399618852883577</v>
+        <v>0.01483603566884995</v>
       </c>
       <c r="J2">
-        <v>-0.06739361584186554</v>
+        <v>-0.06256289035081863</v>
       </c>
       <c r="K2">
-        <v>-0.004853753373026848</v>
+        <v>0.0004616284859366715</v>
       </c>
       <c r="L2">
-        <v>-0.01637169159948826</v>
+        <v>-0.01184527017176151</v>
       </c>
       <c r="M2">
-        <v>0.00195694575086236</v>
+        <v>0.00141442462336272</v>
       </c>
       <c r="N2">
-        <v>-0.0124706607311964</v>
+        <v>-0.01006185449659824</v>
       </c>
       <c r="O2">
-        <v>-8.492190681863576E-05</v>
+        <v>-0.004432001616805792</v>
       </c>
       <c r="P2">
-        <v>-0.04573261365294456</v>
+        <v>-0.0454624705016613</v>
       </c>
       <c r="Q2">
-        <v>0.05053475126624107</v>
+        <v>0.04712413623929024</v>
       </c>
       <c r="R2">
-        <v>-0.009578404016792774</v>
+        <v>-0.005088213831186295</v>
       </c>
       <c r="S2">
-        <v>-0.006711078342050314</v>
+        <v>-0.01219028048217297</v>
       </c>
       <c r="T2">
-        <v>-0.1126388683915138</v>
+        <v>-0.1100708097219467</v>
       </c>
       <c r="U2">
-        <v>-0.0694044828414917</v>
+        <v>-0.07035869359970093</v>
       </c>
       <c r="V2">
-        <v>-0.003382416674867272</v>
+        <v>0.0009791238699108362</v>
       </c>
       <c r="W2">
-        <v>-0.04396562278270721</v>
+        <v>-0.04411300271749496</v>
       </c>
       <c r="X2">
-        <v>0.005001174286007881</v>
+        <v>0.006415180396288633</v>
       </c>
       <c r="Y2">
-        <v>-0.08769262582063675</v>
+        <v>-0.086007259786129</v>
       </c>
       <c r="Z2">
-        <v>0.03268633410334587</v>
+        <v>0.03088515251874924</v>
       </c>
       <c r="AA2">
-        <v>0.01191314961761236</v>
+        <v>0.01077590882778168</v>
       </c>
       <c r="AB2">
-        <v>0.1067500934004784</v>
+        <v>0.1045937314629555</v>
       </c>
       <c r="AC2">
-        <v>0.02212246134877205</v>
+        <v>0.02584449388086796</v>
       </c>
       <c r="AD2">
-        <v>-0.1010944843292236</v>
+        <v>-0.1002218425273895</v>
       </c>
       <c r="AE2">
-        <v>-0.1249788030982018</v>
+        <v>-0.1224013939499855</v>
       </c>
       <c r="AF2">
-        <v>-0.01281100232154131</v>
+        <v>-0.01982927694916725</v>
       </c>
       <c r="AG2">
-        <v>-0.02113904803991318</v>
+        <v>-0.02170991152524948</v>
       </c>
       <c r="AH2">
-        <v>0.1291927397251129</v>
+        <v>0.1338719129562378</v>
       </c>
       <c r="AI2">
-        <v>0.004125310108065605</v>
+        <v>0.003219325561076403</v>
       </c>
       <c r="AJ2">
-        <v>0.002927685854956508</v>
+        <v>-0.0001585904392413795</v>
       </c>
       <c r="AK2">
-        <v>0.02230108715593815</v>
+        <v>0.02344292774796486</v>
       </c>
       <c r="AL2">
-        <v>0.007972278632223606</v>
+        <v>0.008901198394596577</v>
       </c>
       <c r="AM2">
-        <v>-0.1138752847909927</v>
+        <v>-0.1143494322896004</v>
       </c>
       <c r="AN2">
-        <v>0.04413139447569847</v>
+        <v>0.04641516134142876</v>
       </c>
       <c r="AO2">
-        <v>-0.07864847034215927</v>
+        <v>-0.07674162834882736</v>
       </c>
       <c r="AP2">
-        <v>0.03273758292198181</v>
+        <v>0.03785445913672447</v>
       </c>
       <c r="AQ2">
-        <v>0.004199906717985868</v>
+        <v>0.001607176847755909</v>
       </c>
       <c r="AR2">
-        <v>-0.06375077366828918</v>
+        <v>-0.06145130470395088</v>
       </c>
       <c r="AS2">
-        <v>-0.006461459212005138</v>
+        <v>-0.005144072230905294</v>
       </c>
       <c r="AT2">
-        <v>0.04159490019083023</v>
+        <v>0.04246343672275543</v>
       </c>
       <c r="AU2">
-        <v>0.0123330382630229</v>
+        <v>0.007823715917766094</v>
       </c>
       <c r="AV2">
-        <v>0.0005057128146290779</v>
+        <v>0.004217690322548151</v>
       </c>
       <c r="AW2">
-        <v>-0.01167864259332418</v>
+        <v>-0.01626930013298988</v>
       </c>
       <c r="AX2">
-        <v>0.03995075449347496</v>
+        <v>0.03787660598754883</v>
       </c>
       <c r="AY2">
-        <v>-0.1398958712816238</v>
+        <v>-0.1358808577060699</v>
       </c>
       <c r="AZ2">
-        <v>-0.01533297169953585</v>
+        <v>-0.0165309552103281</v>
       </c>
       <c r="BA2">
-        <v>0.02871041372418404</v>
+        <v>0.02733894810080528</v>
       </c>
       <c r="BB2">
-        <v>0.07667037099599838</v>
+        <v>0.0754779577255249</v>
       </c>
       <c r="BC2">
-        <v>-0.002682930557057261</v>
+        <v>-0.001549161155708134</v>
       </c>
       <c r="BD2">
-        <v>0.180760383605957</v>
+        <v>0.1816897541284561</v>
       </c>
       <c r="BE2">
-        <v>-0.008102862164378166</v>
+        <v>-0.005984148010611534</v>
       </c>
       <c r="BF2">
-        <v>-0.02150014974176884</v>
+        <v>-0.02337248064577579</v>
       </c>
       <c r="BG2">
-        <v>-0.05454370379447937</v>
+        <v>-0.05307003483176231</v>
       </c>
       <c r="BH2">
-        <v>-0.005133181810379028</v>
+        <v>-0.01146006211638451</v>
       </c>
       <c r="BI2">
-        <v>0.1047559753060341</v>
+        <v>0.1085632145404816</v>
       </c>
       <c r="BJ2">
-        <v>0.02087007835507393</v>
+        <v>0.02419725805521011</v>
       </c>
       <c r="BK2">
-        <v>-0.004738070070743561</v>
+        <v>-0.005655712448060513</v>
       </c>
       <c r="BL2">
-        <v>-0.007196674589067698</v>
+        <v>-0.006327955517917871</v>
       </c>
       <c r="BM2">
-        <v>0.09106794744729996</v>
+        <v>0.09586439281702042</v>
       </c>
       <c r="BN2">
-        <v>0.004847219213843346</v>
+        <v>0.003852573223412037</v>
       </c>
       <c r="BO2">
-        <v>0.03132021799683571</v>
+        <v>0.03091177903115749</v>
       </c>
       <c r="BP2">
-        <v>0.007724147289991379</v>
+        <v>0.0115262707695365</v>
       </c>
       <c r="BQ2">
-        <v>-0.009497382678091526</v>
+        <v>-0.0151132745668292</v>
       </c>
       <c r="BR2">
-        <v>0.0001104725961340591</v>
+        <v>-0.004256823100149632</v>
       </c>
       <c r="BS2">
-        <v>0.001698617590591311</v>
+        <v>0.0023261324968189</v>
       </c>
       <c r="BT2">
-        <v>-0.004505778662860394</v>
+        <v>-0.005108945537358522</v>
       </c>
       <c r="BU2">
-        <v>0.01682441309094429</v>
+        <v>0.01873894594609737</v>
       </c>
       <c r="BV2">
-        <v>-0.05679255723953247</v>
+        <v>-0.05568243935704231</v>
       </c>
       <c r="BW2">
-        <v>0.005513768177479506</v>
+        <v>-0.0007930976571515203</v>
       </c>
       <c r="BX2">
-        <v>0.07612079381942749</v>
+        <v>0.08072816580533981</v>
       </c>
       <c r="BY2">
-        <v>-0.01181404385715723</v>
+        <v>-0.01451029814779758</v>
       </c>
       <c r="BZ2">
-        <v>0.02818815037608147</v>
+        <v>0.03329174220561981</v>
       </c>
       <c r="CA2">
-        <v>-0.01753870956599712</v>
+        <v>-0.0218450091779232</v>
       </c>
       <c r="CB2">
-        <v>-0.08912039548158646</v>
+        <v>-0.08833356201648712</v>
       </c>
       <c r="CC2">
-        <v>0.008147077634930611</v>
+        <v>0.009649604558944702</v>
       </c>
       <c r="CD2">
-        <v>0.006926491390913725</v>
+        <v>0.002852623118087649</v>
       </c>
       <c r="CE2">
-        <v>0.03260035812854767</v>
+        <v>0.03628227487206459</v>
       </c>
       <c r="CF2">
-        <v>0.01168850995600224</v>
+        <v>0.01688246987760067</v>
       </c>
       <c r="CG2">
-        <v>-0.01501029822975397</v>
+        <v>-0.01480340026319027</v>
       </c>
       <c r="CH2">
-        <v>-0.07844571769237518</v>
+        <v>-0.08470213413238525</v>
       </c>
       <c r="CI2">
-        <v>0.04454086720943451</v>
+        <v>0.04465870559215546</v>
       </c>
       <c r="CJ2">
-        <v>-0.1848368495702744</v>
+        <v>-0.1783456802368164</v>
       </c>
       <c r="CK2">
-        <v>0.01689676567912102</v>
+        <v>0.01778442785143852</v>
       </c>
       <c r="CL2">
-        <v>-0.01424836833029985</v>
+        <v>-0.01304016541689634</v>
       </c>
       <c r="CM2">
-        <v>0.02581548132002354</v>
+        <v>0.02925177291035652</v>
       </c>
       <c r="CN2">
-        <v>-0.004043078515678644</v>
+        <v>-0.004052972421050072</v>
       </c>
       <c r="CO2">
-        <v>-0.009125867858529091</v>
+        <v>-0.009403953328728676</v>
       </c>
       <c r="CP2">
-        <v>-0.02238683588802814</v>
+        <v>-0.02671996504068375</v>
       </c>
       <c r="CQ2">
-        <v>-0.01773694716393948</v>
+        <v>-0.01825655624270439</v>
       </c>
       <c r="CR2">
-        <v>0.01114064641296864</v>
+        <v>0.007882291451096535</v>
       </c>
       <c r="CS2">
-        <v>0.0131595591083169</v>
+        <v>0.01393726002424955</v>
       </c>
       <c r="CT2">
-        <v>-0.001388546545058489</v>
+        <v>0.0002044258872047067</v>
       </c>
       <c r="CU2">
-        <v>-0.01977205462753773</v>
+        <v>-0.02449389733374119</v>
       </c>
       <c r="CV2">
-        <v>0.0001214387812069617</v>
+        <v>-0.002848774427548051</v>
       </c>
       <c r="CW2">
-        <v>-0.05303115397691727</v>
+        <v>-0.05578498542308807</v>
       </c>
       <c r="CX2">
-        <v>0.0177072212100029</v>
+        <v>0.01173027791082859</v>
       </c>
       <c r="CY2">
-        <v>-0.02606823109090328</v>
+        <v>-0.03062292002141476</v>
       </c>
       <c r="CZ2">
-        <v>-0.003052759449928999</v>
+        <v>-0.003067640820518136</v>
       </c>
       <c r="DA2">
-        <v>-0.1132686138153076</v>
+        <v>-0.1172046139836311</v>
       </c>
       <c r="DB2">
-        <v>-0.07054931670427322</v>
+        <v>-0.06965477764606476</v>
       </c>
       <c r="DC2">
-        <v>-0.006336209829896688</v>
+        <v>-0.006842683535069227</v>
       </c>
       <c r="DD2">
-        <v>-0.02385178953409195</v>
+        <v>-0.01899502612650394</v>
       </c>
       <c r="DE2">
-        <v>-0.002565198112279177</v>
+        <v>-0.001702090725302696</v>
       </c>
       <c r="DF2">
-        <v>-0.07585550099611282</v>
+        <v>-0.07370157539844513</v>
       </c>
       <c r="DG2">
-        <v>0.00372980022802949</v>
+        <v>3.334044595248997E-05</v>
       </c>
       <c r="DH2">
-        <v>0.03553463891148567</v>
+        <v>0.03805343806743622</v>
       </c>
       <c r="DI2">
-        <v>-0.02308663167059422</v>
+        <v>-0.01802311465144157</v>
       </c>
       <c r="DJ2">
-        <v>0.02957334369421005</v>
+        <v>0.02552092261612415</v>
       </c>
       <c r="DK2">
-        <v>-0.0440591424703598</v>
+        <v>-0.0377262607216835</v>
       </c>
       <c r="DL2">
-        <v>-0.1333420276641846</v>
+        <v>-0.1301888823509216</v>
       </c>
       <c r="DM2">
-        <v>0.05025762692093849</v>
+        <v>0.05349044874310493</v>
       </c>
       <c r="DN2">
-        <v>0.01114821061491966</v>
+        <v>0.0128865335136652</v>
       </c>
       <c r="DO2">
-        <v>0.0168286319822073</v>
+        <v>0.01631179079413414</v>
       </c>
       <c r="DP2">
-        <v>0.03441530838608742</v>
+        <v>0.03667211160063744</v>
       </c>
       <c r="DQ2">
-        <v>0.006891235243529081</v>
+        <v>0.008010734803974628</v>
       </c>
       <c r="DR2">
-        <v>0.005628066137433052</v>
+        <v>0.009242515079677105</v>
       </c>
       <c r="DS2">
-        <v>0.07121498137712479</v>
+        <v>0.07105285674333572</v>
       </c>
       <c r="DT2">
-        <v>-0.03469685465097427</v>
+        <v>-0.03441421687602997</v>
       </c>
       <c r="DU2">
-        <v>-0.01175842247903347</v>
+        <v>-0.009908348321914673</v>
       </c>
       <c r="DV2">
-        <v>-0.004766581114381552</v>
+        <v>-0.00462673744186759</v>
       </c>
       <c r="DW2">
-        <v>0.004240290261805058</v>
+        <v>0.0009070556261576712</v>
       </c>
       <c r="DX2">
-        <v>0.07909102737903595</v>
+        <v>0.08078343421220779</v>
       </c>
       <c r="DY2">
-        <v>-0.01426896918565035</v>
+        <v>-0.008112733252346516</v>
       </c>
       <c r="DZ2">
-        <v>-0.008295565843582153</v>
+        <v>-0.006813787389546633</v>
       </c>
       <c r="EA2">
-        <v>0.1834098845720291</v>
+        <v>0.1840899139642715</v>
       </c>
       <c r="EB2">
-        <v>-0.09287790209054947</v>
+        <v>-0.09184372425079346</v>
       </c>
       <c r="EC2">
-        <v>-0.005385715514421463</v>
+        <v>-0.005800646264106035</v>
       </c>
       <c r="ED2">
-        <v>0.1374881714582443</v>
+        <v>0.1402852088212967</v>
       </c>
       <c r="EE2">
-        <v>-0.02128800749778748</v>
+        <v>-0.02038715407252312</v>
       </c>
       <c r="EF2">
-        <v>-0.08722136914730072</v>
+        <v>-0.08625491708517075</v>
       </c>
       <c r="EG2">
-        <v>0.02131064981222153</v>
+        <v>0.01946987584233284</v>
       </c>
       <c r="EH2">
-        <v>0.01423375308513641</v>
+        <v>0.01970678940415382</v>
       </c>
       <c r="EI2">
-        <v>0.05882135406136513</v>
+        <v>0.06395021080970764</v>
       </c>
       <c r="EJ2">
-        <v>0.0499657429754734</v>
+        <v>0.04949476942420006</v>
       </c>
       <c r="EK2">
-        <v>0.00887571182101965</v>
+        <v>0.01047645043581724</v>
       </c>
       <c r="EL2">
-        <v>0.006641004234552383</v>
+        <v>0.006562022026628256</v>
       </c>
       <c r="EM2">
-        <v>-0.03532729297876358</v>
+        <v>-0.03339961543679237</v>
       </c>
       <c r="EN2">
-        <v>-0.04803552851080894</v>
+        <v>-0.04257714748382568</v>
       </c>
       <c r="EO2">
-        <v>0.06683285534381866</v>
+        <v>0.0675562247633934</v>
       </c>
       <c r="EP2">
-        <v>0.01863142289221287</v>
+        <v>0.01759726367890835</v>
       </c>
       <c r="EQ2">
-        <v>0.03252975270152092</v>
+        <v>0.03141333162784576</v>
       </c>
       <c r="ER2">
-        <v>0.001150604803115129</v>
+        <v>0.003449466545134783</v>
       </c>
       <c r="ES2">
-        <v>-0.08898120373487473</v>
+        <v>-0.08407892286777496</v>
       </c>
       <c r="ET2">
-        <v>0.02948527224361897</v>
+        <v>0.03265271708369255</v>
       </c>
       <c r="EU2">
-        <v>-0.05649257823824883</v>
+        <v>-0.05302055925130844</v>
       </c>
       <c r="EV2">
-        <v>-0.1825587749481201</v>
+        <v>-0.176878497004509</v>
       </c>
       <c r="EW2">
-        <v>0.1297533214092255</v>
+        <v>0.1319405734539032</v>
       </c>
       <c r="EX2">
-        <v>-0.01845171488821507</v>
+        <v>-0.01789510250091553</v>
       </c>
       <c r="EY2">
-        <v>0.02059823274612427</v>
+        <v>0.02276513539254665</v>
       </c>
       <c r="EZ2">
-        <v>-0.1748123317956924</v>
+        <v>-0.1695405393838882</v>
       </c>
       <c r="FA2">
-        <v>-0.02145761251449585</v>
+        <v>-0.01532744243741035</v>
       </c>
       <c r="FB2">
-        <v>-0.006440958008170128</v>
+        <v>-0.005274940747767687</v>
       </c>
       <c r="FC2">
-        <v>0.01220383029431105</v>
+        <v>0.01322315912693739</v>
       </c>
       <c r="FD2">
-        <v>0.004816742148250341</v>
+        <v>0.004591119941323996</v>
       </c>
       <c r="FE2">
-        <v>-0.04541562870144844</v>
+        <v>-0.04375676065683365</v>
       </c>
       <c r="FF2">
-        <v>-0.06892002373933792</v>
+        <v>-0.06513083726167679</v>
       </c>
       <c r="FG2">
-        <v>-0.1016314327716827</v>
+        <v>-0.107798308134079</v>
       </c>
       <c r="FH2">
-        <v>0.01561030559241772</v>
+        <v>0.01003876142203808</v>
       </c>
       <c r="FI2">
-        <v>0.02273687906563282</v>
+        <v>0.01844458281993866</v>
       </c>
       <c r="FJ2">
-        <v>0.01862228102982044</v>
+        <v>0.01580436900258064</v>
       </c>
       <c r="FK2">
-        <v>0.06766156107187271</v>
+        <v>0.06750363856554031</v>
       </c>
       <c r="FL2">
-        <v>-0.06331326812505722</v>
+        <v>-0.06114477291703224</v>
       </c>
       <c r="FM2">
-        <v>0.02853605896234512</v>
+        <v>0.03155126795172691</v>
       </c>
       <c r="FN2">
-        <v>0.02616256102919579</v>
+        <v>0.02716052159667015</v>
       </c>
       <c r="FO2">
-        <v>-0.009132958948612213</v>
+        <v>-0.005582531448453665</v>
       </c>
       <c r="FP2">
-        <v>0.001354141626507044</v>
+        <v>0.003150294534862041</v>
       </c>
       <c r="FQ2">
-        <v>0.001184804947115481</v>
+        <v>0.0009542146581225097</v>
       </c>
       <c r="FR2">
-        <v>0.005477257072925568</v>
+        <v>0.006456285249441862</v>
       </c>
       <c r="FS2">
-        <v>0.004243123810738325</v>
+        <v>0.005499750841408968</v>
       </c>
       <c r="FT2">
-        <v>-0.005359521601349115</v>
+        <v>-0.006223900243639946</v>
       </c>
       <c r="FU2">
-        <v>-0.0124470004811883</v>
+        <v>-0.009377592243254185</v>
       </c>
       <c r="FV2">
-        <v>-0.04345453903079033</v>
+        <v>-0.0419747419655323</v>
       </c>
       <c r="FW2">
-        <v>-0.05662160366773605</v>
+        <v>-0.0527910441160202</v>
       </c>
       <c r="FX2">
-        <v>0.01160152908414602</v>
+        <v>0.0107184024527669</v>
       </c>
       <c r="FY2">
-        <v>0.0003066033241339028</v>
+        <v>0.001412665820680559</v>
       </c>
       <c r="FZ2">
-        <v>-0.01488090492784977</v>
+        <v>-0.009760282933712006</v>
       </c>
       <c r="GA2">
-        <v>-0.06598898768424988</v>
+        <v>-0.06357584893703461</v>
       </c>
       <c r="GB2">
-        <v>0.00115905434358865</v>
+        <v>-0.0007931620348244905</v>
       </c>
       <c r="GC2">
-        <v>-0.01165841426700354</v>
+        <v>-0.01373535115271807</v>
       </c>
       <c r="GD2">
-        <v>0.01370099373161793</v>
+        <v>0.008538356050848961</v>
       </c>
       <c r="GE2">
-        <v>-0.008601631969213486</v>
+        <v>-0.008610475808382034</v>
       </c>
       <c r="GF2">
-        <v>-0.04581331089138985</v>
+        <v>-0.03984130918979645</v>
       </c>
       <c r="GG2">
-        <v>-0.01905815675854683</v>
+        <v>-0.01337547414004803</v>
       </c>
       <c r="GH2">
-        <v>0.0002432279143249616</v>
+        <v>0.0006006337353028357</v>
       </c>
       <c r="GI2">
-        <v>-0.05107440426945686</v>
+        <v>-0.04807688668370247</v>
       </c>
       <c r="GJ2">
-        <v>0.02048126421868801</v>
+        <v>0.01999865844845772</v>
       </c>
       <c r="GK2">
-        <v>0.002295219572260976</v>
+        <v>-0.004259640816599131</v>
       </c>
       <c r="GL2">
-        <v>-0.08376133441925049</v>
+        <v>-0.08309141546487808</v>
       </c>
       <c r="GM2">
-        <v>0.08692901581525803</v>
+        <v>0.08480364084243774</v>
       </c>
       <c r="GN2">
-        <v>0.005236936267465353</v>
+        <v>0.003717770799994469</v>
       </c>
       <c r="GO2">
-        <v>0.09933962672948837</v>
+        <v>0.1014241948723793</v>
       </c>
       <c r="GP2">
-        <v>-0.0844026580452919</v>
+        <v>-0.08319508284330368</v>
       </c>
       <c r="GQ2">
-        <v>-0.00765986880287528</v>
+        <v>-0.00898393802344799</v>
       </c>
       <c r="GR2">
-        <v>0.003916311543434858</v>
+        <v>0.01229575648903847</v>
       </c>
       <c r="GS2">
-        <v>-0.05996505916118622</v>
+        <v>-0.06074295192956924</v>
       </c>
       <c r="GT2">
-        <v>0.005868454463779926</v>
+        <v>0.001385048613883555</v>
       </c>
       <c r="GU2">
-        <v>-0.01321431715041399</v>
+        <v>-0.01760500110685825</v>
       </c>
       <c r="GV2">
-        <v>0.003506911918520927</v>
+        <v>0.009781369939446449</v>
       </c>
       <c r="GW2">
-        <v>0.009961897507309914</v>
+        <v>0.0139697790145874</v>
       </c>
       <c r="GX2">
-        <v>-0.004729277454316616</v>
+        <v>-0.005111237056553364</v>
       </c>
       <c r="GY2">
-        <v>0.005048075690865517</v>
+        <v>0.005866243038326502</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Service Sector.xlsx
+++ b/static/Models/Regression/Equation/Service Sector.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02008778043091297</v>
+        <v>0.0188599918037653</v>
       </c>
       <c r="C2">
-        <v>-0.04046403616666794</v>
+        <v>-0.03907401859760284</v>
       </c>
       <c r="D2">
-        <v>-0.003934322390705347</v>
+        <v>0.003828587708994746</v>
       </c>
       <c r="E2">
-        <v>0.01022688392549753</v>
+        <v>0.01221301686018705</v>
       </c>
       <c r="F2">
-        <v>0.0040068244561553</v>
+        <v>0.009589738212525845</v>
       </c>
       <c r="G2">
-        <v>-0.02675181999802589</v>
+        <v>-0.02997497282922268</v>
       </c>
       <c r="H2">
-        <v>0.01003938354551792</v>
+        <v>0.00181628717109561</v>
       </c>
       <c r="I2">
-        <v>0.01483603566884995</v>
+        <v>0.01258537545800209</v>
       </c>
       <c r="J2">
-        <v>-0.06256289035081863</v>
+        <v>-0.0696740597486496</v>
       </c>
       <c r="K2">
-        <v>0.0004616284859366715</v>
+        <v>-0.008495341055095196</v>
       </c>
       <c r="L2">
-        <v>-0.01184527017176151</v>
+        <v>-0.01925723254680634</v>
       </c>
       <c r="M2">
-        <v>0.00141442462336272</v>
+        <v>0.007753991056233644</v>
       </c>
       <c r="N2">
-        <v>-0.01006185449659824</v>
+        <v>-0.01547052338719368</v>
       </c>
       <c r="O2">
-        <v>-0.004432001616805792</v>
+        <v>0.002557602943852544</v>
       </c>
       <c r="P2">
-        <v>-0.0454624705016613</v>
+        <v>-0.04946640133857727</v>
       </c>
       <c r="Q2">
-        <v>0.04712413623929024</v>
+        <v>0.05401099473237991</v>
       </c>
       <c r="R2">
-        <v>-0.005088213831186295</v>
+        <v>-0.01089837774634361</v>
       </c>
       <c r="S2">
-        <v>-0.01219028048217297</v>
+        <v>-0.007011310663074255</v>
       </c>
       <c r="T2">
-        <v>-0.1100708097219467</v>
+        <v>-0.1142625957727432</v>
       </c>
       <c r="U2">
-        <v>-0.07035869359970093</v>
+        <v>-0.07186034321784973</v>
       </c>
       <c r="V2">
-        <v>0.0009791238699108362</v>
+        <v>-0.003073672065511346</v>
       </c>
       <c r="W2">
-        <v>-0.04411300271749496</v>
+        <v>-0.03847844526171684</v>
       </c>
       <c r="X2">
-        <v>0.006415180396288633</v>
+        <v>0.002063143532723188</v>
       </c>
       <c r="Y2">
-        <v>-0.086007259786129</v>
+        <v>-0.08387843519449234</v>
       </c>
       <c r="Z2">
-        <v>0.03088515251874924</v>
+        <v>0.03235302492976189</v>
       </c>
       <c r="AA2">
-        <v>0.01077590882778168</v>
+        <v>0.007866062223911285</v>
       </c>
       <c r="AB2">
-        <v>0.1045937314629555</v>
+        <v>0.1033145561814308</v>
       </c>
       <c r="AC2">
-        <v>0.02584449388086796</v>
+        <v>0.0264146625995636</v>
       </c>
       <c r="AD2">
-        <v>-0.1002218425273895</v>
+        <v>-0.1024617329239845</v>
       </c>
       <c r="AE2">
-        <v>-0.1224013939499855</v>
+        <v>-0.1289485692977905</v>
       </c>
       <c r="AF2">
-        <v>-0.01982927694916725</v>
+        <v>-0.008656022138893604</v>
       </c>
       <c r="AG2">
-        <v>-0.02170991152524948</v>
+        <v>-0.01812905073165894</v>
       </c>
       <c r="AH2">
-        <v>0.1338719129562378</v>
+        <v>0.1250085085630417</v>
       </c>
       <c r="AI2">
-        <v>0.003219325561076403</v>
+        <v>0.005792451556771994</v>
       </c>
       <c r="AJ2">
-        <v>-0.0001585904392413795</v>
+        <v>0.006039387546479702</v>
       </c>
       <c r="AK2">
-        <v>0.02344292774796486</v>
+        <v>0.01811385154724121</v>
       </c>
       <c r="AL2">
-        <v>0.008901198394596577</v>
+        <v>0.00370504823513329</v>
       </c>
       <c r="AM2">
-        <v>-0.1143494322896004</v>
+        <v>-0.1172953099012375</v>
       </c>
       <c r="AN2">
-        <v>0.04641516134142876</v>
+        <v>0.04254938289523125</v>
       </c>
       <c r="AO2">
-        <v>-0.07674162834882736</v>
+        <v>-0.08154591917991638</v>
       </c>
       <c r="AP2">
-        <v>0.03785445913672447</v>
+        <v>0.03080045804381371</v>
       </c>
       <c r="AQ2">
-        <v>0.001607176847755909</v>
+        <v>0.008528569713234901</v>
       </c>
       <c r="AR2">
-        <v>-0.06145130470395088</v>
+        <v>-0.06063665449619293</v>
       </c>
       <c r="AS2">
-        <v>-0.005144072230905294</v>
+        <v>-0.008529329672455788</v>
       </c>
       <c r="AT2">
-        <v>0.04246343672275543</v>
+        <v>0.04185828194022179</v>
       </c>
       <c r="AU2">
-        <v>0.007823715917766094</v>
+        <v>0.01505179982632399</v>
       </c>
       <c r="AV2">
-        <v>0.004217690322548151</v>
+        <v>-0.003451137105002999</v>
       </c>
       <c r="AW2">
-        <v>-0.01626930013298988</v>
+        <v>-0.00993135292083025</v>
       </c>
       <c r="AX2">
-        <v>0.03787660598754883</v>
+        <v>0.03876357525587082</v>
       </c>
       <c r="AY2">
-        <v>-0.1358808577060699</v>
+        <v>-0.1401797086000443</v>
       </c>
       <c r="AZ2">
-        <v>-0.0165309552103281</v>
+        <v>-0.01175423711538315</v>
       </c>
       <c r="BA2">
-        <v>0.02733894810080528</v>
+        <v>0.03163892775774002</v>
       </c>
       <c r="BB2">
-        <v>0.0754779577255249</v>
+        <v>0.08108308166265488</v>
       </c>
       <c r="BC2">
-        <v>-0.001549161155708134</v>
+        <v>0.001105049857869744</v>
       </c>
       <c r="BD2">
-        <v>0.1816897541284561</v>
+        <v>0.1794221699237823</v>
       </c>
       <c r="BE2">
-        <v>-0.005984148010611534</v>
+        <v>-0.006531001068651676</v>
       </c>
       <c r="BF2">
-        <v>-0.02337248064577579</v>
+        <v>-0.02165181748569012</v>
       </c>
       <c r="BG2">
-        <v>-0.05307003483176231</v>
+        <v>-0.05531512945890427</v>
       </c>
       <c r="BH2">
-        <v>-0.01146006211638451</v>
+        <v>-0.001819380442611873</v>
       </c>
       <c r="BI2">
-        <v>0.1085632145404816</v>
+        <v>0.1030410379171371</v>
       </c>
       <c r="BJ2">
-        <v>0.02419725805521011</v>
+        <v>0.02326529286801815</v>
       </c>
       <c r="BK2">
-        <v>-0.005655712448060513</v>
+        <v>-0.01192523445934057</v>
       </c>
       <c r="BL2">
-        <v>-0.006327955517917871</v>
+        <v>-0.006323984358459711</v>
       </c>
       <c r="BM2">
-        <v>0.09586439281702042</v>
+        <v>0.09667007625102997</v>
       </c>
       <c r="BN2">
-        <v>0.003852573223412037</v>
+        <v>0.004440233577042818</v>
       </c>
       <c r="BO2">
-        <v>0.03091177903115749</v>
+        <v>0.03691808134317398</v>
       </c>
       <c r="BP2">
-        <v>0.0115262707695365</v>
+        <v>0.005193873308598995</v>
       </c>
       <c r="BQ2">
-        <v>-0.0151132745668292</v>
+        <v>-0.0102750388905406</v>
       </c>
       <c r="BR2">
-        <v>-0.004256823100149632</v>
+        <v>-0.001269145519472659</v>
       </c>
       <c r="BS2">
-        <v>0.0023261324968189</v>
+        <v>-0.002895353594794869</v>
       </c>
       <c r="BT2">
-        <v>-0.005108945537358522</v>
+        <v>-0.008553721010684967</v>
       </c>
       <c r="BU2">
-        <v>0.01873894594609737</v>
+        <v>0.01740524731576443</v>
       </c>
       <c r="BV2">
-        <v>-0.05568243935704231</v>
+        <v>-0.05686477944254875</v>
       </c>
       <c r="BW2">
-        <v>-0.0007930976571515203</v>
+        <v>0.01132375188171864</v>
       </c>
       <c r="BX2">
-        <v>0.08072816580533981</v>
+        <v>0.07294070720672607</v>
       </c>
       <c r="BY2">
-        <v>-0.01451029814779758</v>
+        <v>-0.01116531435400248</v>
       </c>
       <c r="BZ2">
-        <v>0.03329174220561981</v>
+        <v>0.0260022971779108</v>
       </c>
       <c r="CA2">
-        <v>-0.0218450091779232</v>
+        <v>-0.01513732876628637</v>
       </c>
       <c r="CB2">
-        <v>-0.08833356201648712</v>
+        <v>-0.09242342412471771</v>
       </c>
       <c r="CC2">
-        <v>0.009649604558944702</v>
+        <v>0.00676458328962326</v>
       </c>
       <c r="CD2">
-        <v>0.002852623118087649</v>
+        <v>0.003837746335193515</v>
       </c>
       <c r="CE2">
-        <v>0.03628227487206459</v>
+        <v>0.02884534746408463</v>
       </c>
       <c r="CF2">
-        <v>0.01688246987760067</v>
+        <v>0.009366816841065884</v>
       </c>
       <c r="CG2">
-        <v>-0.01480340026319027</v>
+        <v>-0.01576231233775616</v>
       </c>
       <c r="CH2">
-        <v>-0.08470213413238525</v>
+        <v>-0.08004830777645111</v>
       </c>
       <c r="CI2">
-        <v>0.04465870559215546</v>
+        <v>0.04256163537502289</v>
       </c>
       <c r="CJ2">
-        <v>-0.1783456802368164</v>
+        <v>-0.1818329393863678</v>
       </c>
       <c r="CK2">
-        <v>0.01778442785143852</v>
+        <v>0.02007593773305416</v>
       </c>
       <c r="CL2">
-        <v>-0.01304016541689634</v>
+        <v>-0.01650251634418964</v>
       </c>
       <c r="CM2">
-        <v>0.02925177291035652</v>
+        <v>0.02393012493848801</v>
       </c>
       <c r="CN2">
-        <v>-0.004052972421050072</v>
+        <v>-0.004812352824956179</v>
       </c>
       <c r="CO2">
-        <v>-0.009403953328728676</v>
+        <v>-0.01090164389461279</v>
       </c>
       <c r="CP2">
-        <v>-0.02671996504068375</v>
+        <v>-0.02076409198343754</v>
       </c>
       <c r="CQ2">
-        <v>-0.01825655624270439</v>
+        <v>-0.01475891098380089</v>
       </c>
       <c r="CR2">
-        <v>0.007882291451096535</v>
+        <v>0.009990645572543144</v>
       </c>
       <c r="CS2">
-        <v>0.01393726002424955</v>
+        <v>0.01074352860450745</v>
       </c>
       <c r="CT2">
-        <v>0.0002044258872047067</v>
+        <v>-0.002863670932129025</v>
       </c>
       <c r="CU2">
-        <v>-0.02449389733374119</v>
+        <v>-0.02515020780265331</v>
       </c>
       <c r="CV2">
-        <v>-0.002848774427548051</v>
+        <v>-0.004053189884871244</v>
       </c>
       <c r="CW2">
-        <v>-0.05578498542308807</v>
+        <v>-0.05344892293214798</v>
       </c>
       <c r="CX2">
-        <v>0.01173027791082859</v>
+        <v>0.01241704635322094</v>
       </c>
       <c r="CY2">
-        <v>-0.03062292002141476</v>
+        <v>-0.02470585331320763</v>
       </c>
       <c r="CZ2">
-        <v>-0.003067640820518136</v>
+        <v>-0.006800570990890265</v>
       </c>
       <c r="DA2">
-        <v>-0.1172046139836311</v>
+        <v>-0.1070720627903938</v>
       </c>
       <c r="DB2">
-        <v>-0.06965477764606476</v>
+        <v>-0.06888445466756821</v>
       </c>
       <c r="DC2">
-        <v>-0.006842683535069227</v>
+        <v>-0.007605638820677996</v>
       </c>
       <c r="DD2">
-        <v>-0.01899502612650394</v>
+        <v>-0.02764435857534409</v>
       </c>
       <c r="DE2">
-        <v>-0.001702090725302696</v>
+        <v>-0.004835121799260378</v>
       </c>
       <c r="DF2">
-        <v>-0.07370157539844513</v>
+        <v>-0.07710161805152893</v>
       </c>
       <c r="DG2">
-        <v>3.334044595248997E-05</v>
+        <v>0.008781308308243752</v>
       </c>
       <c r="DH2">
-        <v>0.03805343806743622</v>
+        <v>0.03575534746050835</v>
       </c>
       <c r="DI2">
-        <v>-0.01802311465144157</v>
+        <v>-0.01730629988014698</v>
       </c>
       <c r="DJ2">
-        <v>0.02552092261612415</v>
+        <v>0.03376070782542229</v>
       </c>
       <c r="DK2">
-        <v>-0.0377262607216835</v>
+        <v>-0.04268414899706841</v>
       </c>
       <c r="DL2">
-        <v>-0.1301888823509216</v>
+        <v>-0.1354431957006454</v>
       </c>
       <c r="DM2">
-        <v>0.05349044874310493</v>
+        <v>0.05410182103514671</v>
       </c>
       <c r="DN2">
-        <v>0.0128865335136652</v>
+        <v>0.01028300914913416</v>
       </c>
       <c r="DO2">
-        <v>0.01631179079413414</v>
+        <v>0.01445701066404581</v>
       </c>
       <c r="DP2">
-        <v>0.03667211160063744</v>
+        <v>0.03473784402012825</v>
       </c>
       <c r="DQ2">
-        <v>0.008010734803974628</v>
+        <v>0.004731344059109688</v>
       </c>
       <c r="DR2">
-        <v>0.009242515079677105</v>
+        <v>0.004095000214874744</v>
       </c>
       <c r="DS2">
-        <v>0.07105285674333572</v>
+        <v>0.0713777095079422</v>
       </c>
       <c r="DT2">
-        <v>-0.03441421687602997</v>
+        <v>-0.03558104112744331</v>
       </c>
       <c r="DU2">
-        <v>-0.009908348321914673</v>
+        <v>-0.01377575658261776</v>
       </c>
       <c r="DV2">
-        <v>-0.00462673744186759</v>
+        <v>-0.01422797050327063</v>
       </c>
       <c r="DW2">
-        <v>0.0009070556261576712</v>
+        <v>0.004732546862214804</v>
       </c>
       <c r="DX2">
-        <v>0.08078343421220779</v>
+        <v>0.07807635515928268</v>
       </c>
       <c r="DY2">
-        <v>-0.008112733252346516</v>
+        <v>-0.01144634187221527</v>
       </c>
       <c r="DZ2">
-        <v>-0.006813787389546633</v>
+        <v>-0.001928610494360328</v>
       </c>
       <c r="EA2">
-        <v>0.1840899139642715</v>
+        <v>0.187244713306427</v>
       </c>
       <c r="EB2">
-        <v>-0.09184372425079346</v>
+        <v>-0.09388149529695511</v>
       </c>
       <c r="EC2">
-        <v>-0.005800646264106035</v>
+        <v>-0.008548245765268803</v>
       </c>
       <c r="ED2">
-        <v>0.1402852088212967</v>
+        <v>0.135797306895256</v>
       </c>
       <c r="EE2">
-        <v>-0.02038715407252312</v>
+        <v>-0.02287496440112591</v>
       </c>
       <c r="EF2">
-        <v>-0.08625491708517075</v>
+        <v>-0.08976087719202042</v>
       </c>
       <c r="EG2">
-        <v>0.01946987584233284</v>
+        <v>0.01866078190505505</v>
       </c>
       <c r="EH2">
-        <v>0.01970678940415382</v>
+        <v>0.01166088134050369</v>
       </c>
       <c r="EI2">
-        <v>0.06395021080970764</v>
+        <v>0.05677466467022896</v>
       </c>
       <c r="EJ2">
-        <v>0.04949476942420006</v>
+        <v>0.0512227900326252</v>
       </c>
       <c r="EK2">
-        <v>0.01047645043581724</v>
+        <v>0.006465522572398186</v>
       </c>
       <c r="EL2">
-        <v>0.006562022026628256</v>
+        <v>0.005268667358905077</v>
       </c>
       <c r="EM2">
-        <v>-0.03339961543679237</v>
+        <v>-0.03319901973009109</v>
       </c>
       <c r="EN2">
-        <v>-0.04257714748382568</v>
+        <v>-0.04775933548808098</v>
       </c>
       <c r="EO2">
-        <v>0.0675562247633934</v>
+        <v>0.06815150380134583</v>
       </c>
       <c r="EP2">
-        <v>0.01759726367890835</v>
+        <v>0.01738307997584343</v>
       </c>
       <c r="EQ2">
-        <v>0.03141333162784576</v>
+        <v>0.03029046021401882</v>
       </c>
       <c r="ER2">
-        <v>0.003449466545134783</v>
+        <v>0.003136139130219817</v>
       </c>
       <c r="ES2">
-        <v>-0.08407892286777496</v>
+        <v>-0.0913320854306221</v>
       </c>
       <c r="ET2">
-        <v>0.03265271708369255</v>
+        <v>0.02800478227436543</v>
       </c>
       <c r="EU2">
-        <v>-0.05302055925130844</v>
+        <v>-0.05514524504542351</v>
       </c>
       <c r="EV2">
-        <v>-0.176878497004509</v>
+        <v>-0.1808495372533798</v>
       </c>
       <c r="EW2">
-        <v>0.1319405734539032</v>
+        <v>0.1363955736160278</v>
       </c>
       <c r="EX2">
-        <v>-0.01789510250091553</v>
+        <v>-0.0127845536917448</v>
       </c>
       <c r="EY2">
-        <v>0.02276513539254665</v>
+        <v>0.02141363359987736</v>
       </c>
       <c r="EZ2">
-        <v>-0.1695405393838882</v>
+        <v>-0.1709029823541641</v>
       </c>
       <c r="FA2">
-        <v>-0.01532744243741035</v>
+        <v>-0.02120750956237316</v>
       </c>
       <c r="FB2">
-        <v>-0.005274940747767687</v>
+        <v>-0.008750783279538155</v>
       </c>
       <c r="FC2">
-        <v>0.01322315912693739</v>
+        <v>0.01169173512607813</v>
       </c>
       <c r="FD2">
-        <v>0.004591119941323996</v>
+        <v>0.001135707949288189</v>
       </c>
       <c r="FE2">
-        <v>-0.04375676065683365</v>
+        <v>-0.04183261841535568</v>
       </c>
       <c r="FF2">
-        <v>-0.06513083726167679</v>
+        <v>-0.06895242631435394</v>
       </c>
       <c r="FG2">
-        <v>-0.107798308134079</v>
+        <v>-0.1035623922944069</v>
       </c>
       <c r="FH2">
-        <v>0.01003876142203808</v>
+        <v>0.01499398611485958</v>
       </c>
       <c r="FI2">
-        <v>0.01844458281993866</v>
+        <v>0.02304910495877266</v>
       </c>
       <c r="FJ2">
-        <v>0.01580436900258064</v>
+        <v>0.01402702089399099</v>
       </c>
       <c r="FK2">
-        <v>0.06750363856554031</v>
+        <v>0.07050701230764389</v>
       </c>
       <c r="FL2">
-        <v>-0.06114477291703224</v>
+        <v>-0.06143482029438019</v>
       </c>
       <c r="FM2">
-        <v>0.03155126795172691</v>
+        <v>0.03179098665714264</v>
       </c>
       <c r="FN2">
-        <v>0.02716052159667015</v>
+        <v>0.02484134584665298</v>
       </c>
       <c r="FO2">
-        <v>-0.005582531448453665</v>
+        <v>-0.004131162539124489</v>
       </c>
       <c r="FP2">
-        <v>0.003150294534862041</v>
+        <v>0.0005469491588883102</v>
       </c>
       <c r="FQ2">
-        <v>0.0009542146581225097</v>
+        <v>-0.0005758503102697432</v>
       </c>
       <c r="FR2">
-        <v>0.006456285249441862</v>
+        <v>0.003394642379134893</v>
       </c>
       <c r="FS2">
-        <v>0.005499750841408968</v>
+        <v>0.002753542037680745</v>
       </c>
       <c r="FT2">
-        <v>-0.006223900243639946</v>
+        <v>-0.005954861640930176</v>
       </c>
       <c r="FU2">
-        <v>-0.009377592243254185</v>
+        <v>-0.01422739680856466</v>
       </c>
       <c r="FV2">
-        <v>-0.0419747419655323</v>
+        <v>-0.04125406965613365</v>
       </c>
       <c r="FW2">
-        <v>-0.0527910441160202</v>
+        <v>-0.05863266065716743</v>
       </c>
       <c r="FX2">
-        <v>0.0107184024527669</v>
+        <v>0.01061473693698645</v>
       </c>
       <c r="FY2">
-        <v>0.001412665820680559</v>
+        <v>0.001702433102764189</v>
       </c>
       <c r="FZ2">
-        <v>-0.009760282933712006</v>
+        <v>-0.01484660152345896</v>
       </c>
       <c r="GA2">
-        <v>-0.06357584893703461</v>
+        <v>-0.06417146325111389</v>
       </c>
       <c r="GB2">
-        <v>-0.0007931620348244905</v>
+        <v>0.004110434558242559</v>
       </c>
       <c r="GC2">
-        <v>-0.01373535115271807</v>
+        <v>-0.01274155359715223</v>
       </c>
       <c r="GD2">
-        <v>0.008538356050848961</v>
+        <v>0.01462939660996199</v>
       </c>
       <c r="GE2">
-        <v>-0.008610475808382034</v>
+        <v>-0.009667573496699333</v>
       </c>
       <c r="GF2">
-        <v>-0.03984130918979645</v>
+        <v>-0.0483405590057373</v>
       </c>
       <c r="GG2">
-        <v>-0.01337547414004803</v>
+        <v>-0.02231550961732864</v>
       </c>
       <c r="GH2">
-        <v>0.0006006337353028357</v>
+        <v>-0.006426909007132053</v>
       </c>
       <c r="GI2">
-        <v>-0.04807688668370247</v>
+        <v>-0.05493414402008057</v>
       </c>
       <c r="GJ2">
-        <v>0.01999865844845772</v>
+        <v>0.01648350991308689</v>
       </c>
       <c r="GK2">
-        <v>-0.004259640816599131</v>
+        <v>0.00477080000564456</v>
       </c>
       <c r="GL2">
-        <v>-0.08309141546487808</v>
+        <v>-0.08109232783317566</v>
       </c>
       <c r="GM2">
-        <v>0.08480364084243774</v>
+        <v>0.08815211802721024</v>
       </c>
       <c r="GN2">
-        <v>0.003717770799994469</v>
+        <v>0.003902539610862732</v>
       </c>
       <c r="GO2">
-        <v>0.1014241948723793</v>
+        <v>0.09792666137218475</v>
       </c>
       <c r="GP2">
-        <v>-0.08319508284330368</v>
+        <v>-0.08559795469045639</v>
       </c>
       <c r="GQ2">
-        <v>-0.00898393802344799</v>
+        <v>-0.006271460559219122</v>
       </c>
       <c r="GR2">
-        <v>0.01229575648903847</v>
+        <v>0.0008153662201948464</v>
       </c>
       <c r="GS2">
-        <v>-0.06074295192956924</v>
+        <v>-0.06034551560878754</v>
       </c>
       <c r="GT2">
-        <v>0.001385048613883555</v>
+        <v>0.005600527860224247</v>
       </c>
       <c r="GU2">
-        <v>-0.01760500110685825</v>
+        <v>-0.01170700788497925</v>
       </c>
       <c r="GV2">
-        <v>0.009781369939446449</v>
+        <v>-0.00288545130752027</v>
       </c>
       <c r="GW2">
-        <v>0.0139697790145874</v>
+        <v>0.005877733696252108</v>
       </c>
       <c r="GX2">
-        <v>-0.005111237056553364</v>
+        <v>-0.006105014123022556</v>
       </c>
       <c r="GY2">
-        <v>0.005866243038326502</v>
+        <v>0.004276004619896412</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Service Sector.xlsx
+++ b/static/Models/Regression/Equation/Service Sector.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.0188599918037653</v>
+        <v>0.02643910236656666</v>
       </c>
       <c r="C2">
-        <v>-0.03907401859760284</v>
+        <v>-0.04835593700408936</v>
       </c>
       <c r="D2">
-        <v>0.003828587708994746</v>
+        <v>-0.006880866829305887</v>
       </c>
       <c r="E2">
-        <v>0.01221301686018705</v>
+        <v>0.002117302967235446</v>
       </c>
       <c r="F2">
-        <v>0.009589738212525845</v>
+        <v>0.005767737980931997</v>
       </c>
       <c r="G2">
-        <v>-0.02997497282922268</v>
+        <v>-0.02242598682641983</v>
       </c>
       <c r="H2">
-        <v>0.00181628717109561</v>
+        <v>-0.003467002185061574</v>
       </c>
       <c r="I2">
-        <v>0.01258537545800209</v>
+        <v>0.01254201028496027</v>
       </c>
       <c r="J2">
-        <v>-0.0696740597486496</v>
+        <v>-0.0693657249212265</v>
       </c>
       <c r="K2">
-        <v>-0.008495341055095196</v>
+        <v>-0.00653260201215744</v>
       </c>
       <c r="L2">
-        <v>-0.01925723254680634</v>
+        <v>-0.01366616692394018</v>
       </c>
       <c r="M2">
-        <v>0.007753991056233644</v>
+        <v>0.002356685930863023</v>
       </c>
       <c r="N2">
-        <v>-0.01547052338719368</v>
+        <v>-0.01410333719104528</v>
       </c>
       <c r="O2">
-        <v>0.002557602943852544</v>
+        <v>0.001600343617610633</v>
       </c>
       <c r="P2">
-        <v>-0.04946640133857727</v>
+        <v>-0.0570576973259449</v>
       </c>
       <c r="Q2">
-        <v>0.05401099473237991</v>
+        <v>0.05785812437534332</v>
       </c>
       <c r="R2">
-        <v>-0.01089837774634361</v>
+        <v>-0.004880696069449186</v>
       </c>
       <c r="S2">
-        <v>-0.007011310663074255</v>
+        <v>-0.01646661013364792</v>
       </c>
       <c r="T2">
-        <v>-0.1142625957727432</v>
+        <v>-0.1198005452752113</v>
       </c>
       <c r="U2">
-        <v>-0.07186034321784973</v>
+        <v>-0.07164106518030167</v>
       </c>
       <c r="V2">
-        <v>-0.003073672065511346</v>
+        <v>-0.006303179543465376</v>
       </c>
       <c r="W2">
-        <v>-0.03847844526171684</v>
+        <v>-0.02775244973599911</v>
       </c>
       <c r="X2">
-        <v>0.002063143532723188</v>
+        <v>0.007006835658103228</v>
       </c>
       <c r="Y2">
-        <v>-0.08387843519449234</v>
+        <v>-0.08642686158418655</v>
       </c>
       <c r="Z2">
-        <v>0.03235302492976189</v>
+        <v>0.0273081436753273</v>
       </c>
       <c r="AA2">
-        <v>0.007866062223911285</v>
+        <v>0.005458837375044823</v>
       </c>
       <c r="AB2">
-        <v>0.1033145561814308</v>
+        <v>0.09802859276533127</v>
       </c>
       <c r="AC2">
-        <v>0.0264146625995636</v>
+        <v>0.02912969514727592</v>
       </c>
       <c r="AD2">
-        <v>-0.1024617329239845</v>
+        <v>-0.1052768975496292</v>
       </c>
       <c r="AE2">
-        <v>-0.1289485692977905</v>
+        <v>-0.1266918480396271</v>
       </c>
       <c r="AF2">
-        <v>-0.008656022138893604</v>
+        <v>-0.01640873774886131</v>
       </c>
       <c r="AG2">
-        <v>-0.01812905073165894</v>
+        <v>-0.02728807367384434</v>
       </c>
       <c r="AH2">
-        <v>0.1250085085630417</v>
+        <v>0.1332745254039764</v>
       </c>
       <c r="AI2">
-        <v>0.005792451556771994</v>
+        <v>0.004782061092555523</v>
       </c>
       <c r="AJ2">
-        <v>0.006039387546479702</v>
+        <v>0.0006565770599991083</v>
       </c>
       <c r="AK2">
-        <v>0.01811385154724121</v>
+        <v>0.01667495630681515</v>
       </c>
       <c r="AL2">
-        <v>0.00370504823513329</v>
+        <v>0.001878829207271338</v>
       </c>
       <c r="AM2">
-        <v>-0.1172953099012375</v>
+        <v>-0.1233084946870804</v>
       </c>
       <c r="AN2">
-        <v>0.04254938289523125</v>
+        <v>0.04288673028349876</v>
       </c>
       <c r="AO2">
-        <v>-0.08154591917991638</v>
+        <v>-0.07968611270189285</v>
       </c>
       <c r="AP2">
-        <v>0.03080045804381371</v>
+        <v>0.02791148796677589</v>
       </c>
       <c r="AQ2">
-        <v>0.008528569713234901</v>
+        <v>-0.002172915497794747</v>
       </c>
       <c r="AR2">
-        <v>-0.06063665449619293</v>
+        <v>-0.05927935987710953</v>
       </c>
       <c r="AS2">
-        <v>-0.008529329672455788</v>
+        <v>-0.008122071623802185</v>
       </c>
       <c r="AT2">
-        <v>0.04185828194022179</v>
+        <v>0.04623723030090332</v>
       </c>
       <c r="AU2">
-        <v>0.01505179982632399</v>
+        <v>0.01705765165388584</v>
       </c>
       <c r="AV2">
-        <v>-0.003451137105002999</v>
+        <v>-0.004974582232534885</v>
       </c>
       <c r="AW2">
-        <v>-0.00993135292083025</v>
+        <v>-0.004609361290931702</v>
       </c>
       <c r="AX2">
-        <v>0.03876357525587082</v>
+        <v>0.0404973030090332</v>
       </c>
       <c r="AY2">
-        <v>-0.1401797086000443</v>
+        <v>-0.1471347808837891</v>
       </c>
       <c r="AZ2">
-        <v>-0.01175423711538315</v>
+        <v>-0.008595479652285576</v>
       </c>
       <c r="BA2">
-        <v>0.03163892775774002</v>
+        <v>0.02672902122139931</v>
       </c>
       <c r="BB2">
-        <v>0.08108308166265488</v>
+        <v>0.08584167808294296</v>
       </c>
       <c r="BC2">
-        <v>0.001105049857869744</v>
+        <v>-0.004518028814345598</v>
       </c>
       <c r="BD2">
-        <v>0.1794221699237823</v>
+        <v>0.1767456531524658</v>
       </c>
       <c r="BE2">
-        <v>-0.006531001068651676</v>
+        <v>0.006132794078439474</v>
       </c>
       <c r="BF2">
-        <v>-0.02165181748569012</v>
+        <v>-0.02245777472853661</v>
       </c>
       <c r="BG2">
-        <v>-0.05531512945890427</v>
+        <v>-0.05734371393918991</v>
       </c>
       <c r="BH2">
-        <v>-0.001819380442611873</v>
+        <v>-0.006020283792167902</v>
       </c>
       <c r="BI2">
-        <v>0.1030410379171371</v>
+        <v>0.09672672301530838</v>
       </c>
       <c r="BJ2">
-        <v>0.02326529286801815</v>
+        <v>0.03187707811594009</v>
       </c>
       <c r="BK2">
-        <v>-0.01192523445934057</v>
+        <v>-0.01384726166725159</v>
       </c>
       <c r="BL2">
-        <v>-0.006323984358459711</v>
+        <v>0.001887904130853713</v>
       </c>
       <c r="BM2">
-        <v>0.09667007625102997</v>
+        <v>0.08852262794971466</v>
       </c>
       <c r="BN2">
-        <v>0.004440233577042818</v>
+        <v>0.01003698259592056</v>
       </c>
       <c r="BO2">
-        <v>0.03691808134317398</v>
+        <v>0.04621617496013641</v>
       </c>
       <c r="BP2">
-        <v>0.005193873308598995</v>
+        <v>0.0083431676030159</v>
       </c>
       <c r="BQ2">
-        <v>-0.0102750388905406</v>
+        <v>-0.006277912762016058</v>
       </c>
       <c r="BR2">
-        <v>-0.001269145519472659</v>
+        <v>-0.006222200114279985</v>
       </c>
       <c r="BS2">
-        <v>-0.002895353594794869</v>
+        <v>-0.01007926277816296</v>
       </c>
       <c r="BT2">
-        <v>-0.008553721010684967</v>
+        <v>-0.01160747744143009</v>
       </c>
       <c r="BU2">
-        <v>0.01740524731576443</v>
+        <v>0.01325718592852354</v>
       </c>
       <c r="BV2">
-        <v>-0.05686477944254875</v>
+        <v>-0.04892127588391304</v>
       </c>
       <c r="BW2">
-        <v>0.01132375188171864</v>
+        <v>0.004621583037078381</v>
       </c>
       <c r="BX2">
-        <v>0.07294070720672607</v>
+        <v>0.07796278595924377</v>
       </c>
       <c r="BY2">
-        <v>-0.01116531435400248</v>
+        <v>-0.01056120451539755</v>
       </c>
       <c r="BZ2">
-        <v>0.0260022971779108</v>
+        <v>0.02341457270085812</v>
       </c>
       <c r="CA2">
-        <v>-0.01513732876628637</v>
+        <v>-0.01497379969805479</v>
       </c>
       <c r="CB2">
-        <v>-0.09242342412471771</v>
+        <v>-0.08318553864955902</v>
       </c>
       <c r="CC2">
-        <v>0.00676458328962326</v>
+        <v>0.005117340479046106</v>
       </c>
       <c r="CD2">
-        <v>0.003837746335193515</v>
+        <v>0.008384273387491703</v>
       </c>
       <c r="CE2">
-        <v>0.02884534746408463</v>
+        <v>0.03251877799630165</v>
       </c>
       <c r="CF2">
-        <v>0.009366816841065884</v>
+        <v>0.01889982260763645</v>
       </c>
       <c r="CG2">
-        <v>-0.01576231233775616</v>
+        <v>-0.01541207637637854</v>
       </c>
       <c r="CH2">
-        <v>-0.08004830777645111</v>
+        <v>-0.08818768709897995</v>
       </c>
       <c r="CI2">
-        <v>0.04256163537502289</v>
+        <v>0.03976244106888771</v>
       </c>
       <c r="CJ2">
-        <v>-0.1818329393863678</v>
+        <v>-0.1875009387731552</v>
       </c>
       <c r="CK2">
-        <v>0.02007593773305416</v>
+        <v>0.01777241192758083</v>
       </c>
       <c r="CL2">
-        <v>-0.01650251634418964</v>
+        <v>-0.0156856682151556</v>
       </c>
       <c r="CM2">
-        <v>0.02393012493848801</v>
+        <v>0.02441855706274509</v>
       </c>
       <c r="CN2">
-        <v>-0.004812352824956179</v>
+        <v>-0.002493600128218532</v>
       </c>
       <c r="CO2">
-        <v>-0.01090164389461279</v>
+        <v>-0.009636254049837589</v>
       </c>
       <c r="CP2">
-        <v>-0.02076409198343754</v>
+        <v>-0.009397378191351891</v>
       </c>
       <c r="CQ2">
-        <v>-0.01475891098380089</v>
+        <v>-0.01671782322227955</v>
       </c>
       <c r="CR2">
-        <v>0.009990645572543144</v>
+        <v>0.005211552139371634</v>
       </c>
       <c r="CS2">
-        <v>0.01074352860450745</v>
+        <v>0.008487033657729626</v>
       </c>
       <c r="CT2">
-        <v>-0.002863670932129025</v>
+        <v>-0.004254789091646671</v>
       </c>
       <c r="CU2">
-        <v>-0.02515020780265331</v>
+        <v>-0.02842782810330391</v>
       </c>
       <c r="CV2">
-        <v>-0.004053189884871244</v>
+        <v>-0.00637307483702898</v>
       </c>
       <c r="CW2">
-        <v>-0.05344892293214798</v>
+        <v>-0.06221029534935951</v>
       </c>
       <c r="CX2">
-        <v>0.01241704635322094</v>
+        <v>0.01437777001410723</v>
       </c>
       <c r="CY2">
-        <v>-0.02470585331320763</v>
+        <v>-0.02015340328216553</v>
       </c>
       <c r="CZ2">
-        <v>-0.006800570990890265</v>
+        <v>-0.0104209166020155</v>
       </c>
       <c r="DA2">
-        <v>-0.1070720627903938</v>
+        <v>-0.09708920866250992</v>
       </c>
       <c r="DB2">
-        <v>-0.06888445466756821</v>
+        <v>-0.0639290064573288</v>
       </c>
       <c r="DC2">
-        <v>-0.007605638820677996</v>
+        <v>-0.01011217013001442</v>
       </c>
       <c r="DD2">
-        <v>-0.02764435857534409</v>
+        <v>-0.02031234093010426</v>
       </c>
       <c r="DE2">
-        <v>-0.004835121799260378</v>
+        <v>-0.00768580473959446</v>
       </c>
       <c r="DF2">
-        <v>-0.07710161805152893</v>
+        <v>-0.06813681870698929</v>
       </c>
       <c r="DG2">
-        <v>0.008781308308243752</v>
+        <v>0.007392820902168751</v>
       </c>
       <c r="DH2">
-        <v>0.03575534746050835</v>
+        <v>0.03266831114888191</v>
       </c>
       <c r="DI2">
-        <v>-0.01730629988014698</v>
+        <v>-0.02013381198048592</v>
       </c>
       <c r="DJ2">
-        <v>0.03376070782542229</v>
+        <v>0.02482360787689686</v>
       </c>
       <c r="DK2">
-        <v>-0.04268414899706841</v>
+        <v>-0.0357336550951004</v>
       </c>
       <c r="DL2">
-        <v>-0.1354431957006454</v>
+        <v>-0.1408082842826843</v>
       </c>
       <c r="DM2">
-        <v>0.05410182103514671</v>
+        <v>0.05498216673731804</v>
       </c>
       <c r="DN2">
-        <v>0.01028300914913416</v>
+        <v>0.007997024804353714</v>
       </c>
       <c r="DO2">
-        <v>0.01445701066404581</v>
+        <v>0.007061729673296213</v>
       </c>
       <c r="DP2">
-        <v>0.03473784402012825</v>
+        <v>0.04181979596614838</v>
       </c>
       <c r="DQ2">
-        <v>0.004731344059109688</v>
+        <v>0.0009767129085958004</v>
       </c>
       <c r="DR2">
-        <v>0.004095000214874744</v>
+        <v>0.00864294171333313</v>
       </c>
       <c r="DS2">
-        <v>0.0713777095079422</v>
+        <v>0.07573813199996948</v>
       </c>
       <c r="DT2">
-        <v>-0.03558104112744331</v>
+        <v>-0.02756134234368801</v>
       </c>
       <c r="DU2">
-        <v>-0.01377575658261776</v>
+        <v>-0.01381823513656855</v>
       </c>
       <c r="DV2">
-        <v>-0.01422797050327063</v>
+        <v>-0.02836721390485764</v>
       </c>
       <c r="DW2">
-        <v>0.004732546862214804</v>
+        <v>0.01327713951468468</v>
       </c>
       <c r="DX2">
-        <v>0.07807635515928268</v>
+        <v>0.07573782652616501</v>
       </c>
       <c r="DY2">
-        <v>-0.01144634187221527</v>
+        <v>-0.01352602709084749</v>
       </c>
       <c r="DZ2">
-        <v>-0.001928610494360328</v>
+        <v>-0.008590233512222767</v>
       </c>
       <c r="EA2">
-        <v>0.187244713306427</v>
+        <v>0.1848495751619339</v>
       </c>
       <c r="EB2">
-        <v>-0.09388149529695511</v>
+        <v>-0.09660601615905762</v>
       </c>
       <c r="EC2">
-        <v>-0.008548245765268803</v>
+        <v>-0.007926794700324535</v>
       </c>
       <c r="ED2">
-        <v>0.135797306895256</v>
+        <v>0.1299978643655777</v>
       </c>
       <c r="EE2">
-        <v>-0.02287496440112591</v>
+        <v>-0.02613062970340252</v>
       </c>
       <c r="EF2">
-        <v>-0.08976087719202042</v>
+        <v>-0.08455795049667358</v>
       </c>
       <c r="EG2">
-        <v>0.01866078190505505</v>
+        <v>0.01362127810716629</v>
       </c>
       <c r="EH2">
-        <v>0.01166088134050369</v>
+        <v>0.02156146056950092</v>
       </c>
       <c r="EI2">
-        <v>0.05677466467022896</v>
+        <v>0.05349151790142059</v>
       </c>
       <c r="EJ2">
-        <v>0.0512227900326252</v>
+        <v>0.05922316387295723</v>
       </c>
       <c r="EK2">
-        <v>0.006465522572398186</v>
+        <v>0.007513666991144419</v>
       </c>
       <c r="EL2">
-        <v>0.005268667358905077</v>
+        <v>0.00525314174592495</v>
       </c>
       <c r="EM2">
-        <v>-0.03319901973009109</v>
+        <v>-0.04399823024868965</v>
       </c>
       <c r="EN2">
-        <v>-0.04775933548808098</v>
+        <v>-0.05277246236801147</v>
       </c>
       <c r="EO2">
-        <v>0.06815150380134583</v>
+        <v>0.0644274428486824</v>
       </c>
       <c r="EP2">
-        <v>0.01738307997584343</v>
+        <v>0.0240431185811758</v>
       </c>
       <c r="EQ2">
-        <v>0.03029046021401882</v>
+        <v>0.02388930693268776</v>
       </c>
       <c r="ER2">
-        <v>0.003136139130219817</v>
+        <v>-0.001180611667223275</v>
       </c>
       <c r="ES2">
-        <v>-0.0913320854306221</v>
+        <v>-0.08189718425273895</v>
       </c>
       <c r="ET2">
-        <v>0.02800478227436543</v>
+        <v>0.0228757094591856</v>
       </c>
       <c r="EU2">
-        <v>-0.05514524504542351</v>
+        <v>-0.04630132392048836</v>
       </c>
       <c r="EV2">
-        <v>-0.1808495372533798</v>
+        <v>-0.1863135397434235</v>
       </c>
       <c r="EW2">
-        <v>0.1363955736160278</v>
+        <v>0.1276880949735641</v>
       </c>
       <c r="EX2">
-        <v>-0.0127845536917448</v>
+        <v>-0.002588590141385794</v>
       </c>
       <c r="EY2">
-        <v>0.02141363359987736</v>
+        <v>0.01640855520963669</v>
       </c>
       <c r="EZ2">
-        <v>-0.1709029823541641</v>
+        <v>-0.1798252910375595</v>
       </c>
       <c r="FA2">
-        <v>-0.02120750956237316</v>
+        <v>-0.0142871979624033</v>
       </c>
       <c r="FB2">
-        <v>-0.008750783279538155</v>
+        <v>-0.01197788305580616</v>
       </c>
       <c r="FC2">
-        <v>0.01169173512607813</v>
+        <v>0.0108940377831459</v>
       </c>
       <c r="FD2">
-        <v>0.001135707949288189</v>
+        <v>-0.002458085073158145</v>
       </c>
       <c r="FE2">
-        <v>-0.04183261841535568</v>
+        <v>-0.0353064276278019</v>
       </c>
       <c r="FF2">
-        <v>-0.06895242631435394</v>
+        <v>-0.07434675842523575</v>
       </c>
       <c r="FG2">
-        <v>-0.1035623922944069</v>
+        <v>-0.1124507933855057</v>
       </c>
       <c r="FH2">
-        <v>0.01499398611485958</v>
+        <v>0.01119387242943048</v>
       </c>
       <c r="FI2">
-        <v>0.02304910495877266</v>
+        <v>0.03048425912857056</v>
       </c>
       <c r="FJ2">
-        <v>0.01402702089399099</v>
+        <v>0.007278052158653736</v>
       </c>
       <c r="FK2">
-        <v>0.07050701230764389</v>
+        <v>0.07807429879903793</v>
       </c>
       <c r="FL2">
-        <v>-0.06143482029438019</v>
+        <v>-0.07194303721189499</v>
       </c>
       <c r="FM2">
-        <v>0.03179098665714264</v>
+        <v>0.02770396508276463</v>
       </c>
       <c r="FN2">
-        <v>0.02484134584665298</v>
+        <v>0.03374781832098961</v>
       </c>
       <c r="FO2">
-        <v>-0.004131162539124489</v>
+        <v>-0.004516736604273319</v>
       </c>
       <c r="FP2">
-        <v>0.0005469491588883102</v>
+        <v>0.006159881129860878</v>
       </c>
       <c r="FQ2">
-        <v>-0.0005758503102697432</v>
+        <v>-0.0001653700455790386</v>
       </c>
       <c r="FR2">
-        <v>0.003394642379134893</v>
+        <v>-0.000218995483010076</v>
       </c>
       <c r="FS2">
-        <v>0.002753542037680745</v>
+        <v>0.002026410074904561</v>
       </c>
       <c r="FT2">
-        <v>-0.005954861640930176</v>
+        <v>-0.003468288574367762</v>
       </c>
       <c r="FU2">
-        <v>-0.01422739680856466</v>
+        <v>-0.02047271281480789</v>
       </c>
       <c r="FV2">
-        <v>-0.04125406965613365</v>
+        <v>-0.04511529952287674</v>
       </c>
       <c r="FW2">
-        <v>-0.05863266065716743</v>
+        <v>-0.06548108905553818</v>
       </c>
       <c r="FX2">
-        <v>0.01061473693698645</v>
+        <v>0.01004128344357014</v>
       </c>
       <c r="FY2">
-        <v>0.001702433102764189</v>
+        <v>0.005495402496308088</v>
       </c>
       <c r="FZ2">
-        <v>-0.01484660152345896</v>
+        <v>-0.003183449618518353</v>
       </c>
       <c r="GA2">
-        <v>-0.06417146325111389</v>
+        <v>-0.07436324656009674</v>
       </c>
       <c r="GB2">
-        <v>0.004110434558242559</v>
+        <v>0.01118695270270109</v>
       </c>
       <c r="GC2">
-        <v>-0.01274155359715223</v>
+        <v>-0.01171438861638308</v>
       </c>
       <c r="GD2">
-        <v>0.01462939660996199</v>
+        <v>0.01662864536046982</v>
       </c>
       <c r="GE2">
-        <v>-0.009667573496699333</v>
+        <v>-0.009924881160259247</v>
       </c>
       <c r="GF2">
-        <v>-0.0483405590057373</v>
+        <v>-0.03778462111949921</v>
       </c>
       <c r="GG2">
-        <v>-0.02231550961732864</v>
+        <v>-0.01889478974044323</v>
       </c>
       <c r="GH2">
-        <v>-0.006426909007132053</v>
+        <v>-0.004314905498176813</v>
       </c>
       <c r="GI2">
-        <v>-0.05493414402008057</v>
+        <v>-0.05241189524531364</v>
       </c>
       <c r="GJ2">
-        <v>0.01648350991308689</v>
+        <v>0.02381059713661671</v>
       </c>
       <c r="GK2">
-        <v>0.00477080000564456</v>
+        <v>-0.004841155838221312</v>
       </c>
       <c r="GL2">
-        <v>-0.08109232783317566</v>
+        <v>-0.08968912810087204</v>
       </c>
       <c r="GM2">
-        <v>0.08815211802721024</v>
+        <v>0.0974578782916069</v>
       </c>
       <c r="GN2">
-        <v>0.003902539610862732</v>
+        <v>0.01213204860687256</v>
       </c>
       <c r="GO2">
-        <v>0.09792666137218475</v>
+        <v>0.1019366160035133</v>
       </c>
       <c r="GP2">
-        <v>-0.08559795469045639</v>
+        <v>-0.08685571700334549</v>
       </c>
       <c r="GQ2">
-        <v>-0.006271460559219122</v>
+        <v>0.002672500442713499</v>
       </c>
       <c r="GR2">
-        <v>0.0008153662201948464</v>
+        <v>0.004946267697960138</v>
       </c>
       <c r="GS2">
-        <v>-0.06034551560878754</v>
+        <v>-0.05718175694346428</v>
       </c>
       <c r="GT2">
-        <v>0.005600527860224247</v>
+        <v>-0.000997937167994678</v>
       </c>
       <c r="GU2">
-        <v>-0.01170700788497925</v>
+        <v>-0.006612138357013464</v>
       </c>
       <c r="GV2">
-        <v>-0.00288545130752027</v>
+        <v>-0.0002544492017477751</v>
       </c>
       <c r="GW2">
-        <v>0.005877733696252108</v>
+        <v>0.008010444231331348</v>
       </c>
       <c r="GX2">
-        <v>-0.006105014123022556</v>
+        <v>-0.004543886054307222</v>
       </c>
       <c r="GY2">
-        <v>0.004276004619896412</v>
+        <v>0.002176664303988218</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Service Sector.xlsx
+++ b/static/Models/Regression/Equation/Service Sector.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02643910236656666</v>
+        <v>0.02286923490464687</v>
       </c>
       <c r="C2">
-        <v>-0.04835593700408936</v>
+        <v>-0.04715203121304512</v>
       </c>
       <c r="D2">
-        <v>-0.006880866829305887</v>
+        <v>-0.00499047851189971</v>
       </c>
       <c r="E2">
-        <v>0.002117302967235446</v>
+        <v>-0.0009628661791794002</v>
       </c>
       <c r="F2">
-        <v>0.005767737980931997</v>
+        <v>0.008996054530143738</v>
       </c>
       <c r="G2">
-        <v>-0.02242598682641983</v>
+        <v>-0.03291059285402298</v>
       </c>
       <c r="H2">
-        <v>-0.003467002185061574</v>
+        <v>-0.01221670024096966</v>
       </c>
       <c r="I2">
-        <v>0.01254201028496027</v>
+        <v>0.01739352941513062</v>
       </c>
       <c r="J2">
-        <v>-0.0693657249212265</v>
+        <v>-0.06771265715360641</v>
       </c>
       <c r="K2">
-        <v>-0.00653260201215744</v>
+        <v>-0.008988031186163425</v>
       </c>
       <c r="L2">
-        <v>-0.01366616692394018</v>
+        <v>-0.01425257697701454</v>
       </c>
       <c r="M2">
-        <v>0.002356685930863023</v>
+        <v>-0.00149685307405889</v>
       </c>
       <c r="N2">
-        <v>-0.01410333719104528</v>
+        <v>-0.01467302534729242</v>
       </c>
       <c r="O2">
-        <v>0.001600343617610633</v>
+        <v>0.00304308463819325</v>
       </c>
       <c r="P2">
-        <v>-0.0570576973259449</v>
+        <v>-0.0485808253288269</v>
       </c>
       <c r="Q2">
-        <v>0.05785812437534332</v>
+        <v>0.060687605291605</v>
       </c>
       <c r="R2">
-        <v>-0.004880696069449186</v>
+        <v>-0.0001701992878224701</v>
       </c>
       <c r="S2">
-        <v>-0.01646661013364792</v>
+        <v>-0.01734797470271587</v>
       </c>
       <c r="T2">
-        <v>-0.1198005452752113</v>
+        <v>-0.1159869134426117</v>
       </c>
       <c r="U2">
-        <v>-0.07164106518030167</v>
+        <v>-0.07147981971502304</v>
       </c>
       <c r="V2">
-        <v>-0.006303179543465376</v>
+        <v>0.001395163591951132</v>
       </c>
       <c r="W2">
-        <v>-0.02775244973599911</v>
+        <v>-0.02579809352755547</v>
       </c>
       <c r="X2">
-        <v>0.007006835658103228</v>
+        <v>0.007979739457368851</v>
       </c>
       <c r="Y2">
-        <v>-0.08642686158418655</v>
+        <v>-0.09188730269670486</v>
       </c>
       <c r="Z2">
-        <v>0.0273081436753273</v>
+        <v>0.02643091045320034</v>
       </c>
       <c r="AA2">
-        <v>0.005458837375044823</v>
+        <v>0.007709752768278122</v>
       </c>
       <c r="AB2">
-        <v>0.09802859276533127</v>
+        <v>0.09662670642137527</v>
       </c>
       <c r="AC2">
-        <v>0.02912969514727592</v>
+        <v>0.03301553055644035</v>
       </c>
       <c r="AD2">
-        <v>-0.1052768975496292</v>
+        <v>-0.1005984544754028</v>
       </c>
       <c r="AE2">
-        <v>-0.1266918480396271</v>
+        <v>-0.1288892477750778</v>
       </c>
       <c r="AF2">
-        <v>-0.01640873774886131</v>
+        <v>-0.01796695776283741</v>
       </c>
       <c r="AG2">
-        <v>-0.02728807367384434</v>
+        <v>-0.02871746569871902</v>
       </c>
       <c r="AH2">
-        <v>0.1332745254039764</v>
+        <v>0.1310318857431412</v>
       </c>
       <c r="AI2">
-        <v>0.004782061092555523</v>
+        <v>0.0006355289369821548</v>
       </c>
       <c r="AJ2">
-        <v>0.0006565770599991083</v>
+        <v>0.005684792064130306</v>
       </c>
       <c r="AK2">
-        <v>0.01667495630681515</v>
+        <v>0.01847135275602341</v>
       </c>
       <c r="AL2">
-        <v>0.001878829207271338</v>
+        <v>0.007133985869586468</v>
       </c>
       <c r="AM2">
-        <v>-0.1233084946870804</v>
+        <v>-0.1186239048838615</v>
       </c>
       <c r="AN2">
-        <v>0.04288673028349876</v>
+        <v>0.03651118278503418</v>
       </c>
       <c r="AO2">
-        <v>-0.07968611270189285</v>
+        <v>-0.07124000787734985</v>
       </c>
       <c r="AP2">
-        <v>0.02791148796677589</v>
+        <v>0.02777526341378689</v>
       </c>
       <c r="AQ2">
-        <v>-0.002172915497794747</v>
+        <v>-0.003660060232505202</v>
       </c>
       <c r="AR2">
-        <v>-0.05927935987710953</v>
+        <v>-0.04902109503746033</v>
       </c>
       <c r="AS2">
-        <v>-0.008122071623802185</v>
+        <v>-0.008331360295414925</v>
       </c>
       <c r="AT2">
-        <v>0.04623723030090332</v>
+        <v>0.04898057878017426</v>
       </c>
       <c r="AU2">
-        <v>0.01705765165388584</v>
+        <v>0.01759588159620762</v>
       </c>
       <c r="AV2">
-        <v>-0.004974582232534885</v>
+        <v>0.002124070655554533</v>
       </c>
       <c r="AW2">
-        <v>-0.004609361290931702</v>
+        <v>-0.007780382875353098</v>
       </c>
       <c r="AX2">
-        <v>0.0404973030090332</v>
+        <v>0.04724986106157303</v>
       </c>
       <c r="AY2">
-        <v>-0.1471347808837891</v>
+        <v>-0.1440898925065994</v>
       </c>
       <c r="AZ2">
-        <v>-0.008595479652285576</v>
+        <v>-0.007812113966792822</v>
       </c>
       <c r="BA2">
-        <v>0.02672902122139931</v>
+        <v>0.02461233362555504</v>
       </c>
       <c r="BB2">
-        <v>0.08584167808294296</v>
+        <v>0.08972032368183136</v>
       </c>
       <c r="BC2">
-        <v>-0.004518028814345598</v>
+        <v>0.00322695286013186</v>
       </c>
       <c r="BD2">
-        <v>0.1767456531524658</v>
+        <v>0.1810140758752823</v>
       </c>
       <c r="BE2">
-        <v>0.006132794078439474</v>
+        <v>-0.006168794352561235</v>
       </c>
       <c r="BF2">
-        <v>-0.02245777472853661</v>
+        <v>-0.01954334042966366</v>
       </c>
       <c r="BG2">
-        <v>-0.05734371393918991</v>
+        <v>-0.05253688246011734</v>
       </c>
       <c r="BH2">
-        <v>-0.006020283792167902</v>
+        <v>-0.01189023442566395</v>
       </c>
       <c r="BI2">
-        <v>0.09672672301530838</v>
+        <v>0.1001524552702904</v>
       </c>
       <c r="BJ2">
-        <v>0.03187707811594009</v>
+        <v>0.0381477028131485</v>
       </c>
       <c r="BK2">
-        <v>-0.01384726166725159</v>
+        <v>0.002109048189595342</v>
       </c>
       <c r="BL2">
-        <v>0.001887904130853713</v>
+        <v>-0.001784481573849916</v>
       </c>
       <c r="BM2">
-        <v>0.08852262794971466</v>
+        <v>0.08997242152690887</v>
       </c>
       <c r="BN2">
-        <v>0.01003698259592056</v>
+        <v>0.01449976023286581</v>
       </c>
       <c r="BO2">
-        <v>0.04621617496013641</v>
+        <v>0.04934182390570641</v>
       </c>
       <c r="BP2">
-        <v>0.0083431676030159</v>
+        <v>0.003141498658806086</v>
       </c>
       <c r="BQ2">
-        <v>-0.006277912762016058</v>
+        <v>-0.005504589527845383</v>
       </c>
       <c r="BR2">
-        <v>-0.006222200114279985</v>
+        <v>-0.0002259061875520274</v>
       </c>
       <c r="BS2">
-        <v>-0.01007926277816296</v>
+        <v>-0.008868052624166012</v>
       </c>
       <c r="BT2">
-        <v>-0.01160747744143009</v>
+        <v>-0.008248556405305862</v>
       </c>
       <c r="BU2">
-        <v>0.01325718592852354</v>
+        <v>0.01576696895062923</v>
       </c>
       <c r="BV2">
-        <v>-0.04892127588391304</v>
+        <v>-0.05667565762996674</v>
       </c>
       <c r="BW2">
-        <v>0.004621583037078381</v>
+        <v>-0.0001592972985235974</v>
       </c>
       <c r="BX2">
-        <v>0.07796278595924377</v>
+        <v>0.07890370488166809</v>
       </c>
       <c r="BY2">
-        <v>-0.01056120451539755</v>
+        <v>-0.001649782760068774</v>
       </c>
       <c r="BZ2">
-        <v>0.02341457270085812</v>
+        <v>0.02558030374348164</v>
       </c>
       <c r="CA2">
-        <v>-0.01497379969805479</v>
+        <v>-0.01922950148582458</v>
       </c>
       <c r="CB2">
-        <v>-0.08318553864955902</v>
+        <v>-0.08667342364788055</v>
       </c>
       <c r="CC2">
-        <v>0.005117340479046106</v>
+        <v>0.01013681292533875</v>
       </c>
       <c r="CD2">
-        <v>0.008384273387491703</v>
+        <v>0.001885382109321654</v>
       </c>
       <c r="CE2">
-        <v>0.03251877799630165</v>
+        <v>0.0395696647465229</v>
       </c>
       <c r="CF2">
-        <v>0.01889982260763645</v>
+        <v>0.01558041386306286</v>
       </c>
       <c r="CG2">
-        <v>-0.01541207637637854</v>
+        <v>-0.007518624886870384</v>
       </c>
       <c r="CH2">
-        <v>-0.08818768709897995</v>
+        <v>-0.08127548545598984</v>
       </c>
       <c r="CI2">
-        <v>0.03976244106888771</v>
+        <v>0.04360233247280121</v>
       </c>
       <c r="CJ2">
-        <v>-0.1875009387731552</v>
+        <v>-0.1937365084886551</v>
       </c>
       <c r="CK2">
-        <v>0.01777241192758083</v>
+        <v>0.01832321472465992</v>
       </c>
       <c r="CL2">
-        <v>-0.0156856682151556</v>
+        <v>-0.01046118326485157</v>
       </c>
       <c r="CM2">
-        <v>0.02441855706274509</v>
+        <v>0.02524067461490631</v>
       </c>
       <c r="CN2">
-        <v>-0.002493600128218532</v>
+        <v>0.007095211185514927</v>
       </c>
       <c r="CO2">
-        <v>-0.009636254049837589</v>
+        <v>-0.004927780479192734</v>
       </c>
       <c r="CP2">
-        <v>-0.009397378191351891</v>
+        <v>-0.005893724039196968</v>
       </c>
       <c r="CQ2">
-        <v>-0.01671782322227955</v>
+        <v>-0.01989892311394215</v>
       </c>
       <c r="CR2">
-        <v>0.005211552139371634</v>
+        <v>0.008349575102329254</v>
       </c>
       <c r="CS2">
-        <v>0.008487033657729626</v>
+        <v>0.01246820017695427</v>
       </c>
       <c r="CT2">
-        <v>-0.004254789091646671</v>
+        <v>0.0002897767117246985</v>
       </c>
       <c r="CU2">
-        <v>-0.02842782810330391</v>
+        <v>-0.0215845312923193</v>
       </c>
       <c r="CV2">
-        <v>-0.00637307483702898</v>
+        <v>-0.011420295573771</v>
       </c>
       <c r="CW2">
-        <v>-0.06221029534935951</v>
+        <v>-0.06019693240523338</v>
       </c>
       <c r="CX2">
-        <v>0.01437777001410723</v>
+        <v>0.01124326512217522</v>
       </c>
       <c r="CY2">
-        <v>-0.02015340328216553</v>
+        <v>-0.02345448359847069</v>
       </c>
       <c r="CZ2">
-        <v>-0.0104209166020155</v>
+        <v>-0.008611597120761871</v>
       </c>
       <c r="DA2">
-        <v>-0.09708920866250992</v>
+        <v>-0.09604043513536453</v>
       </c>
       <c r="DB2">
-        <v>-0.0639290064573288</v>
+        <v>-0.05834701284766197</v>
       </c>
       <c r="DC2">
-        <v>-0.01011217013001442</v>
+        <v>-0.0003199927741661668</v>
       </c>
       <c r="DD2">
-        <v>-0.02031234093010426</v>
+        <v>-0.02260918729007244</v>
       </c>
       <c r="DE2">
-        <v>-0.00768580473959446</v>
+        <v>-0.00403026444837451</v>
       </c>
       <c r="DF2">
-        <v>-0.06813681870698929</v>
+        <v>-0.07116755843162537</v>
       </c>
       <c r="DG2">
-        <v>0.007392820902168751</v>
+        <v>0.00355825899168849</v>
       </c>
       <c r="DH2">
-        <v>0.03266831114888191</v>
+        <v>0.0301496721804142</v>
       </c>
       <c r="DI2">
-        <v>-0.02013381198048592</v>
+        <v>-0.01751787401735783</v>
       </c>
       <c r="DJ2">
-        <v>0.02482360787689686</v>
+        <v>0.02670666575431824</v>
       </c>
       <c r="DK2">
-        <v>-0.0357336550951004</v>
+        <v>-0.04249104857444763</v>
       </c>
       <c r="DL2">
-        <v>-0.1408082842826843</v>
+        <v>-0.1335459798574448</v>
       </c>
       <c r="DM2">
-        <v>0.05498216673731804</v>
+        <v>0.06190528720617294</v>
       </c>
       <c r="DN2">
-        <v>0.007997024804353714</v>
+        <v>0.01262912433594465</v>
       </c>
       <c r="DO2">
-        <v>0.007061729673296213</v>
+        <v>0.01318715792149305</v>
       </c>
       <c r="DP2">
-        <v>0.04181979596614838</v>
+        <v>0.03867613151669502</v>
       </c>
       <c r="DQ2">
-        <v>0.0009767129085958004</v>
+        <v>0.005104998592287302</v>
       </c>
       <c r="DR2">
-        <v>0.00864294171333313</v>
+        <v>0.008968253619968891</v>
       </c>
       <c r="DS2">
-        <v>0.07573813199996948</v>
+        <v>0.07245589792728424</v>
       </c>
       <c r="DT2">
-        <v>-0.02756134234368801</v>
+        <v>-0.02362865023314953</v>
       </c>
       <c r="DU2">
-        <v>-0.01381823513656855</v>
+        <v>-0.01503689400851727</v>
       </c>
       <c r="DV2">
-        <v>-0.02836721390485764</v>
+        <v>-0.02399331890046597</v>
       </c>
       <c r="DW2">
-        <v>0.01327713951468468</v>
+        <v>0.006442894227802753</v>
       </c>
       <c r="DX2">
-        <v>0.07573782652616501</v>
+        <v>0.07954992353916168</v>
       </c>
       <c r="DY2">
-        <v>-0.01352602709084749</v>
+        <v>-0.01421521976590157</v>
       </c>
       <c r="DZ2">
-        <v>-0.008590233512222767</v>
+        <v>-0.00266432692296803</v>
       </c>
       <c r="EA2">
-        <v>0.1848495751619339</v>
+        <v>0.1748540699481964</v>
       </c>
       <c r="EB2">
-        <v>-0.09660601615905762</v>
+        <v>-0.09263482689857483</v>
       </c>
       <c r="EC2">
-        <v>-0.007926794700324535</v>
+        <v>-0.01095806900411844</v>
       </c>
       <c r="ED2">
-        <v>0.1299978643655777</v>
+        <v>0.1335974037647247</v>
       </c>
       <c r="EE2">
-        <v>-0.02613062970340252</v>
+        <v>-0.02148778922855854</v>
       </c>
       <c r="EF2">
-        <v>-0.08455795049667358</v>
+        <v>-0.08242375403642654</v>
       </c>
       <c r="EG2">
-        <v>0.01362127810716629</v>
+        <v>0.01745427958667278</v>
       </c>
       <c r="EH2">
-        <v>0.02156146056950092</v>
+        <v>0.01827062666416168</v>
       </c>
       <c r="EI2">
-        <v>0.05349151790142059</v>
+        <v>0.05675820261240005</v>
       </c>
       <c r="EJ2">
-        <v>0.05922316387295723</v>
+        <v>0.06514213234186172</v>
       </c>
       <c r="EK2">
-        <v>0.007513666991144419</v>
+        <v>0.01107133645564318</v>
       </c>
       <c r="EL2">
-        <v>0.00525314174592495</v>
+        <v>0.009798097424209118</v>
       </c>
       <c r="EM2">
-        <v>-0.04399823024868965</v>
+        <v>-0.04838106781244278</v>
       </c>
       <c r="EN2">
-        <v>-0.05277246236801147</v>
+        <v>-0.04388155043125153</v>
       </c>
       <c r="EO2">
-        <v>0.0644274428486824</v>
+        <v>0.07787729799747467</v>
       </c>
       <c r="EP2">
-        <v>0.0240431185811758</v>
+        <v>0.02426359429955482</v>
       </c>
       <c r="EQ2">
-        <v>0.02388930693268776</v>
+        <v>0.02098968997597694</v>
       </c>
       <c r="ER2">
-        <v>-0.001180611667223275</v>
+        <v>-0.001460150815546513</v>
       </c>
       <c r="ES2">
-        <v>-0.08189718425273895</v>
+        <v>-0.08295797556638718</v>
       </c>
       <c r="ET2">
-        <v>0.0228757094591856</v>
+        <v>0.03096580877900124</v>
       </c>
       <c r="EU2">
-        <v>-0.04630132392048836</v>
+        <v>-0.04235675930976868</v>
       </c>
       <c r="EV2">
-        <v>-0.1863135397434235</v>
+        <v>-0.1790840476751328</v>
       </c>
       <c r="EW2">
-        <v>0.1276880949735641</v>
+        <v>0.1338286548852921</v>
       </c>
       <c r="EX2">
-        <v>-0.002588590141385794</v>
+        <v>0.003201447427272797</v>
       </c>
       <c r="EY2">
-        <v>0.01640855520963669</v>
+        <v>0.02106902562081814</v>
       </c>
       <c r="EZ2">
-        <v>-0.1798252910375595</v>
+        <v>-0.1815359741449356</v>
       </c>
       <c r="FA2">
-        <v>-0.0142871979624033</v>
+        <v>-0.02009364031255245</v>
       </c>
       <c r="FB2">
-        <v>-0.01197788305580616</v>
+        <v>-0.007738580461591482</v>
       </c>
       <c r="FC2">
-        <v>0.0108940377831459</v>
+        <v>0.01066081784665585</v>
       </c>
       <c r="FD2">
-        <v>-0.002458085073158145</v>
+        <v>-0.0008799901697784662</v>
       </c>
       <c r="FE2">
-        <v>-0.0353064276278019</v>
+        <v>-0.03661619126796722</v>
       </c>
       <c r="FF2">
-        <v>-0.07434675842523575</v>
+        <v>-0.0701497420668602</v>
       </c>
       <c r="FG2">
-        <v>-0.1124507933855057</v>
+        <v>-0.1079614982008934</v>
       </c>
       <c r="FH2">
-        <v>0.01119387242943048</v>
+        <v>0.003630476072430611</v>
       </c>
       <c r="FI2">
-        <v>0.03048425912857056</v>
+        <v>0.04025213047862053</v>
       </c>
       <c r="FJ2">
-        <v>0.007278052158653736</v>
+        <v>0.01023273635655642</v>
       </c>
       <c r="FK2">
-        <v>0.07807429879903793</v>
+        <v>0.08360940217971802</v>
       </c>
       <c r="FL2">
-        <v>-0.07194303721189499</v>
+        <v>-0.07772371917963028</v>
       </c>
       <c r="FM2">
-        <v>0.02770396508276463</v>
+        <v>0.01442492567002773</v>
       </c>
       <c r="FN2">
-        <v>0.03374781832098961</v>
+        <v>0.03101108409464359</v>
       </c>
       <c r="FO2">
-        <v>-0.004516736604273319</v>
+        <v>-0.006547825410962105</v>
       </c>
       <c r="FP2">
-        <v>0.006159881129860878</v>
+        <v>0.01428284961730242</v>
       </c>
       <c r="FQ2">
-        <v>-0.0001653700455790386</v>
+        <v>0.004652217496186495</v>
       </c>
       <c r="FR2">
-        <v>-0.000218995483010076</v>
+        <v>0.003841356607154012</v>
       </c>
       <c r="FS2">
-        <v>0.002026410074904561</v>
+        <v>0.006459912750869989</v>
       </c>
       <c r="FT2">
-        <v>-0.003468288574367762</v>
+        <v>0.0002955975360237062</v>
       </c>
       <c r="FU2">
-        <v>-0.02047271281480789</v>
+        <v>-0.01698246411979198</v>
       </c>
       <c r="FV2">
-        <v>-0.04511529952287674</v>
+        <v>-0.04372338578104973</v>
       </c>
       <c r="FW2">
-        <v>-0.06548108905553818</v>
+        <v>-0.06234806403517723</v>
       </c>
       <c r="FX2">
-        <v>0.01004128344357014</v>
+        <v>0.008945263922214508</v>
       </c>
       <c r="FY2">
-        <v>0.005495402496308088</v>
+        <v>-0.002651388524100184</v>
       </c>
       <c r="FZ2">
-        <v>-0.003183449618518353</v>
+        <v>0.002676050644367933</v>
       </c>
       <c r="GA2">
-        <v>-0.07436324656009674</v>
+        <v>-0.07724761962890625</v>
       </c>
       <c r="GB2">
-        <v>0.01118695270270109</v>
+        <v>0.01076341886073351</v>
       </c>
       <c r="GC2">
-        <v>-0.01171438861638308</v>
+        <v>-0.01072527747601271</v>
       </c>
       <c r="GD2">
-        <v>0.01662864536046982</v>
+        <v>0.01555496174842119</v>
       </c>
       <c r="GE2">
-        <v>-0.009924881160259247</v>
+        <v>-0.005650216713547707</v>
       </c>
       <c r="GF2">
-        <v>-0.03778462111949921</v>
+        <v>-0.04147983714938164</v>
       </c>
       <c r="GG2">
-        <v>-0.01889478974044323</v>
+        <v>-0.01376701146364212</v>
       </c>
       <c r="GH2">
-        <v>-0.004314905498176813</v>
+        <v>-0.005206185858696699</v>
       </c>
       <c r="GI2">
-        <v>-0.05241189524531364</v>
+        <v>-0.05949871614575386</v>
       </c>
       <c r="GJ2">
-        <v>0.02381059713661671</v>
+        <v>0.02036592923104763</v>
       </c>
       <c r="GK2">
-        <v>-0.004841155838221312</v>
+        <v>-0.004249016288667917</v>
       </c>
       <c r="GL2">
-        <v>-0.08968912810087204</v>
+        <v>-0.09596610069274902</v>
       </c>
       <c r="GM2">
-        <v>0.0974578782916069</v>
+        <v>0.09681514650583267</v>
       </c>
       <c r="GN2">
-        <v>0.01213204860687256</v>
+        <v>0.01107917726039886</v>
       </c>
       <c r="GO2">
-        <v>0.1019366160035133</v>
+        <v>0.1089030653238297</v>
       </c>
       <c r="GP2">
-        <v>-0.08685571700334549</v>
+        <v>-0.08168590813875198</v>
       </c>
       <c r="GQ2">
-        <v>0.002672500442713499</v>
+        <v>-0.007089239545166492</v>
       </c>
       <c r="GR2">
-        <v>0.004946267697960138</v>
+        <v>0.001023239572532475</v>
       </c>
       <c r="GS2">
-        <v>-0.05718175694346428</v>
+        <v>-0.05049460753798485</v>
       </c>
       <c r="GT2">
-        <v>-0.000997937167994678</v>
+        <v>0.003197547048330307</v>
       </c>
       <c r="GU2">
-        <v>-0.006612138357013464</v>
+        <v>-0.01094444282352924</v>
       </c>
       <c r="GV2">
-        <v>-0.0002544492017477751</v>
+        <v>0.005712170153856277</v>
       </c>
       <c r="GW2">
-        <v>0.008010444231331348</v>
+        <v>0.00254382099956274</v>
       </c>
       <c r="GX2">
-        <v>-0.004543886054307222</v>
+        <v>0.0005973520455881953</v>
       </c>
       <c r="GY2">
-        <v>0.002176664303988218</v>
+        <v>0.006393424235284328</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Service Sector.xlsx
+++ b/static/Models/Regression/Equation/Service Sector.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02447885647416115</v>
+        <v>0.0264662429690361</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05087748169898987</v>
+        <v>-0.04423021152615547</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00596483051776886</v>
+        <v>-0.01283861137926579</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.005363391246646643</v>
+        <v>-0.006978004239499569</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004332354292273521</v>
+        <v>0.002335557946935296</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03725334629416466</v>
+        <v>-0.03379569947719574</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.01026341132819653</v>
+        <v>-0.01425124984234571</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01523712277412415</v>
+        <v>0.01779070124030113</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0674731433391571</v>
+        <v>-0.06548928469419479</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.006066587753593922</v>
+        <v>-0.002360759535804391</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.02012632228434086</v>
+        <v>-0.01797254383563995</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002019441453740001</v>
+        <v>0.007754767313599586</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01297271996736526</v>
+        <v>-0.008559325709939003</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.001101466710679233</v>
+        <v>0.004149130079895258</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.04573024436831474</v>
+        <v>-0.04110958054661751</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05850483104586601</v>
+        <v>0.06127195805311203</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0027077232953161</v>
+        <v>-0.001886150217615068</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01566145941615105</v>
+        <v>-0.01954470947384834</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1179482489824295</v>
+        <v>-0.1194536909461021</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.07343021035194397</v>
+        <v>-0.06713306903839111</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0001842739293351769</v>
+        <v>0.004348042421042919</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.03081332147121429</v>
+        <v>-0.02878215909004211</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00446196086704731</v>
+        <v>0.009476380422711372</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.09543744474649429</v>
+        <v>-0.09201989322900772</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0300256758928299</v>
+        <v>0.03174081444740295</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.008846796117722988</v>
+        <v>0.003133989404886961</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1010946482419968</v>
+        <v>0.09888593852519989</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0308859795331955</v>
+        <v>0.02812864817678928</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.1028081700205803</v>
+        <v>-0.1027826964855194</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.1241375431418419</v>
+        <v>-0.1274537146091461</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.01331102382391691</v>
+        <v>-0.007170221302658319</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.02875028923153877</v>
+        <v>-0.0271823313087225</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1343300938606262</v>
+        <v>0.1377231627702713</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.0005387944984249771</v>
+        <v>-0.002340334933251143</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.009153326973319054</v>
+        <v>0.01202262938022614</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01940323039889336</v>
+        <v>0.01470464002341032</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.003140932647511363</v>
+        <v>0.007381106726825237</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.1137441173195839</v>
+        <v>-0.1159144937992096</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.03817381709814072</v>
+        <v>0.03299472481012344</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.07212051004171371</v>
+        <v>-0.07503657788038254</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.02203941904008389</v>
+        <v>0.02878636121749878</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0008669919334352016</v>
+        <v>0.001884481287561357</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.05197608470916748</v>
+        <v>-0.05015865713357925</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.00322279566898942</v>
+        <v>-0.008583885617554188</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.04314945265650749</v>
+        <v>0.04768924042582512</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01739826984703541</v>
+        <v>0.01247455272823572</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.00208034785464406</v>
+        <v>0.003385768737643957</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.005580894183367491</v>
+        <v>-0.009807519614696503</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.04814476147294044</v>
+        <v>0.0533691979944706</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.1450299769639969</v>
+        <v>-0.1433716416358948</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0006390492781065404</v>
+        <v>0.004418857395648956</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.02128755860030651</v>
+        <v>0.02546347491443157</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.08793158084154129</v>
+        <v>0.09187836945056915</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0007529813447035849</v>
+        <v>0.003950459882616997</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1788074970245361</v>
+        <v>0.1783364862203598</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.01234511472284794</v>
+        <v>-0.0172183383256197</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.021252466365695</v>
+        <v>-0.01707475446164608</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.05492309108376503</v>
+        <v>-0.05395854264497757</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.009520621970295906</v>
+        <v>-0.005977523978799582</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.09855447709560394</v>
+        <v>0.09653525799512863</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.04105639457702637</v>
+        <v>0.04522759839892387</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0008201762102544308</v>
+        <v>-0.0003073661064263433</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.0007383780903182924</v>
+        <v>0.001516944030299783</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.08890093863010406</v>
+        <v>0.08575964719057083</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01884673722088337</v>
+        <v>0.01206405647099018</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0441850870847702</v>
+        <v>0.04690264537930489</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.002169650979340076</v>
+        <v>0.007507335394620895</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.007337565533816814</v>
+        <v>-0.003573541063815355</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.002346717286854982</v>
+        <v>-0.006477316375821829</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.005943675991147757</v>
+        <v>-0.002429105574265122</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.007935304194688797</v>
+        <v>-0.005269635934382677</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.01395263243466616</v>
+        <v>0.01309627387672663</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.06065971404314041</v>
+        <v>-0.0579342395067215</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.004917973186820745</v>
+        <v>-0.0001775387354427949</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.08002953231334686</v>
+        <v>0.0823126956820488</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.001497087301686406</v>
+        <v>0.002128958934918046</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.02633029781281948</v>
+        <v>0.02839763648808002</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.01776481047272682</v>
+        <v>-0.02224593795835972</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.08790896832942963</v>
+        <v>-0.09278552979230881</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.007773471064865589</v>
+        <v>0.009108150377869606</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.001468864153139293</v>
+        <v>-0.004999567288905382</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.03695159405469894</v>
+        <v>0.03514595329761505</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.02185676433146</v>
+        <v>0.02578064426779747</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.008345290087163448</v>
+        <v>-0.005192586686462164</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.08506721258163452</v>
+        <v>-0.08803045749664307</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.04136467725038528</v>
+        <v>0.04124854877591133</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.1958004832267761</v>
+        <v>-0.1954376995563507</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.01684046350419521</v>
+        <v>0.01556157600134611</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.0119369076564908</v>
+        <v>-0.01042871363461018</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.02425673790276051</v>
+        <v>0.02002351358532906</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.008231509476900101</v>
+        <v>0.001670450321398675</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.007257175631821156</v>
+        <v>-0.006510731764137745</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.008576980791985989</v>
+        <v>-0.01158555690199137</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.0234713964164257</v>
+        <v>-0.02269626408815384</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.01100444234907627</v>
+        <v>0.01465773861855268</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.009810146875679493</v>
+        <v>0.008278555236756802</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.001756528043188155</v>
+        <v>-7.602881669299677e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.02345363982021809</v>
+        <v>-0.02360278926789761</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.01189608499407768</v>
+        <v>-0.005001972895115614</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.0623367540538311</v>
+        <v>-0.05863654613494873</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.008847086690366268</v>
+        <v>0.01304707862436771</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.02125032059848309</v>
+        <v>-0.02546906657516956</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.007282446604222059</v>
+        <v>-0.01324683148413897</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.1010513752698898</v>
+        <v>-0.09761786460876465</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.05558596178889275</v>
+        <v>-0.05121785029768944</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0003763554559554905</v>
+        <v>0.001603628857992589</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.01987523585557938</v>
+        <v>-0.01496389601379633</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.00670300517231226</v>
+        <v>-0.006618026178330183</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.06959608197212219</v>
+        <v>-0.069449283182621</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.0007088099955581129</v>
+        <v>-0.002956409472972155</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.02608734928071499</v>
+        <v>0.02356701716780663</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.01296278461813927</v>
+        <v>-0.01552714966237545</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02489262633025646</v>
+        <v>0.01881307549774647</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.04527493566274643</v>
+        <v>-0.04062069207429886</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.1225275620818138</v>
+        <v>-0.1207316145300865</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.06349258869886398</v>
+        <v>0.06750443577766418</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01039097923785448</v>
+        <v>0.01039918977767229</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.01685977354645729</v>
+        <v>0.01399799715727568</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.04018685594201088</v>
+        <v>0.04215843230485916</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.00268860999494791</v>
+        <v>0.001953430008143187</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.007065256126224995</v>
+        <v>0.003302973695099354</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.06877143681049347</v>
+        <v>0.06653179973363876</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.02314906008541584</v>
+        <v>-0.02965961024165154</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.01214242819696665</v>
+        <v>-0.01411911845207214</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.02063827216625214</v>
+        <v>-0.01592389680445194</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.007873645052313805</v>
+        <v>0.004010350909084082</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.07729967683553696</v>
+        <v>0.07836740463972092</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.01588301733136177</v>
+        <v>-0.01188989449292421</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.007487312890589237</v>
+        <v>-0.00611887825652957</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.1717662811279297</v>
+        <v>0.1754244714975357</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.09492741525173187</v>
+        <v>-0.09477421641349792</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.01401716098189354</v>
+        <v>-0.0181359201669693</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.1317120343446732</v>
+        <v>0.1296549141407013</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.0238193403929472</v>
+        <v>-0.02178564853966236</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.08529654145240784</v>
+        <v>-0.08868250250816345</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.01856819167733192</v>
+        <v>0.01518598664551973</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.01853703893721104</v>
+        <v>0.0222138911485672</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.05669471994042397</v>
+        <v>0.05858660116791725</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0624038465321064</v>
+        <v>0.05869310721755028</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.009781735949218273</v>
+        <v>0.01231058593839407</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.00744323804974556</v>
+        <v>0.007018744479864836</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.05384167283773422</v>
+        <v>-0.04953682422637939</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.04183393344283104</v>
+        <v>-0.04099490866065025</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.07332441955804825</v>
+        <v>0.07639902085065842</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.02426449954509735</v>
+        <v>0.02650823444128036</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0168304406106472</v>
+        <v>0.01531775109469891</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.001443417742848396</v>
+        <v>0.006125815212726593</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.07729452848434448</v>
+        <v>-0.07843292504549026</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.03410344943404198</v>
+        <v>0.03995044901967049</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.03764346241950989</v>
+        <v>-0.04188650846481323</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.1779010444879532</v>
+        <v>-0.1753132045269012</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.1318364888429642</v>
+        <v>0.1249003037810326</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.001592612825334072</v>
+        <v>0.0005616614362224936</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01894798129796982</v>
+        <v>0.01563600637018681</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.1831430792808533</v>
+        <v>-0.188296303153038</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.01492238137871027</v>
+        <v>-0.01574021764099598</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.01020470075309277</v>
+        <v>-0.01124382857233286</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.006151791196316481</v>
+        <v>0.001591219916008413</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0003001124132424593</v>
+        <v>-0.002336408942937851</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.04187734425067902</v>
+        <v>-0.04424020648002625</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.07196392118930817</v>
+        <v>-0.06581105291843414</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1095814630389214</v>
+        <v>-0.1123595386743546</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.003044805023819208</v>
+        <v>-0.001010539825074375</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.04006591439247131</v>
+        <v>0.03505486622452736</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.01268570963293314</v>
+        <v>0.01922506280243397</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.07969817519187927</v>
+        <v>0.07622195780277252</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.07319775223731995</v>
+        <v>-0.06748083233833313</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.01097853761166334</v>
+        <v>0.007219250313937664</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.03205717355012894</v>
+        <v>0.03431252390146255</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00101517210714519</v>
+        <v>-0.002211342100054026</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.01954727619886398</v>
+        <v>0.0230464730411768</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.002201196970418096</v>
+        <v>0.002680698409676552</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.001372020575217903</v>
+        <v>0.0009383654687553644</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.004417463205754757</v>
+        <v>0.005744761787354946</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.002066217828541994</v>
+        <v>0.0005607773782685399</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.01885989122092724</v>
+        <v>-0.02040840685367584</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.04537947103381157</v>
+        <v>-0.04658197239041328</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.06389740109443665</v>
+        <v>-0.06516658514738083</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.01018846221268177</v>
+        <v>0.01465495768934488</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.005918390117585659</v>
+        <v>-0.002052723430097103</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.001026914338581264</v>
+        <v>0.007772485259920359</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.07648059725761414</v>
+        <v>-0.07001985609531403</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.01352559030056</v>
+        <v>0.009250864386558533</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.007736004423350096</v>
+        <v>-0.004654085263609886</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.01194477267563343</v>
+        <v>0.01790552400052547</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.00800024438649416</v>
+        <v>-0.008401960134506226</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.03882072865962982</v>
+        <v>-0.03548401221632957</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.01895616203546524</v>
+        <v>-0.01528566982597113</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.005958313122391701</v>
+        <v>-0.001959207002073526</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.05488365143537521</v>
+        <v>-0.04817549139261246</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.02585133910179138</v>
+        <v>0.02194325812160969</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.003745329100638628</v>
+        <v>-0.006051831413060427</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.1012689769268036</v>
+        <v>-0.1022605746984482</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.0942397341132164</v>
+        <v>0.09027985483407974</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.01615246385335922</v>
+        <v>0.0203360989689827</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.1139025613665581</v>
+        <v>0.1179549694061279</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.0840686559677124</v>
+        <v>-0.08336285501718521</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.006443935446441174</v>
+        <v>-0.01158443838357925</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.002263296628370881</v>
+        <v>0.002114509930834174</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.0500134751200676</v>
+        <v>-0.0441143661737442</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.0007025017985142767</v>
+        <v>-0.002476178109645844</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.008123730309307575</v>
+        <v>-0.009955266490578651</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.007438166067004204</v>
+        <v>0.001626660930924118</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.007900373078882694</v>
+        <v>0.01471713185310364</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.0009217344922944903</v>
+        <v>-0.00419662008062005</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.004161930177360773</v>
+        <v>0.004252948798239231</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Service Sector.xlsx
+++ b/static/Models/Regression/Equation/Service Sector.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0264662429690361</v>
+        <v>0.02600701712071896</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04423021152615547</v>
+        <v>-0.04888258874416351</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01283861137926579</v>
+        <v>-0.01079313736408949</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.006978004239499569</v>
+        <v>-0.007800724357366562</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002335557946935296</v>
+        <v>0.006248015910387039</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03379569947719574</v>
+        <v>-0.03758696839213371</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.01425124984234571</v>
+        <v>-0.01793993823230267</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01779070124030113</v>
+        <v>0.01957489550113678</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.06548928469419479</v>
+        <v>-0.06462108343839645</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.002360759535804391</v>
+        <v>-0.006682170554995537</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.01797254383563995</v>
+        <v>-0.01431418675929308</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007754767313599586</v>
+        <v>0.006415406242012978</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.008559325709939003</v>
+        <v>-0.004485723096877337</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004149130079895258</v>
+        <v>0.007856148295104504</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.04110958054661751</v>
+        <v>-0.04553370177745819</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06127195805311203</v>
+        <v>0.05660908669233322</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.001886150217615068</v>
+        <v>0.0006914350087754428</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01954470947384834</v>
+        <v>-0.02381055988371372</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1194536909461021</v>
+        <v>-0.1183250918984413</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.06713306903839111</v>
+        <v>-0.07036613672971725</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004348042421042919</v>
+        <v>0.00029816321330145</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02878215909004211</v>
+        <v>-0.02495642751455307</v>
       </c>
       <c r="X2" t="n">
-        <v>0.009476380422711372</v>
+        <v>0.01190450508147478</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.09201989322900772</v>
+        <v>-0.09604908525943756</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.03174081444740295</v>
+        <v>0.03465273231267929</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003133989404886961</v>
+        <v>0.006797670386731625</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.09888593852519989</v>
+        <v>0.1021318212151527</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02812864817678928</v>
+        <v>0.03161942586302757</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.1027826964855194</v>
+        <v>-0.101286768913269</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.1274537146091461</v>
+        <v>-0.1239876970648766</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.007170221302658319</v>
+        <v>-0.01043425127863884</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0271823313087225</v>
+        <v>-0.02562053129076958</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1377231627702713</v>
+        <v>0.1390218883752823</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.002340334933251143</v>
+        <v>0.001305422745645046</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01202262938022614</v>
+        <v>0.01572604663670063</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01470464002341032</v>
+        <v>0.01863417588174343</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.007381106726825237</v>
+        <v>0.004095874261111021</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.1159144937992096</v>
+        <v>-0.1126823574304581</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.03299472481012344</v>
+        <v>0.03156010061502457</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.07503657788038254</v>
+        <v>-0.070814348757267</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.02878636121749878</v>
+        <v>0.02958456613123417</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.001884481287561357</v>
+        <v>-0.0004198199894744903</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.05015865713357925</v>
+        <v>-0.04758917540311813</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.008583885617554188</v>
+        <v>-0.009694614447653294</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.04768924042582512</v>
+        <v>0.04335201159119606</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01247455272823572</v>
+        <v>0.01258645113557577</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.003385768737643957</v>
+        <v>0.007191017270088196</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.009807519614696503</v>
+        <v>-0.01143655460327864</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0533691979944706</v>
+        <v>0.05559965223073959</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.1433716416358948</v>
+        <v>-0.1399820595979691</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.004418857395648956</v>
+        <v>0.007911705411970615</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.02546347491443157</v>
+        <v>0.02889695763587952</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.09187836945056915</v>
+        <v>0.08701553195714951</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.003950459882616997</v>
+        <v>-0.001695958664640784</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1783364862203598</v>
+        <v>0.1797525733709335</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0172183383256197</v>
+        <v>-0.01332073658704758</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.01707475446164608</v>
+        <v>-0.01926456205546856</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.05395854264497757</v>
+        <v>-0.05212940648198128</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.005977523978799582</v>
+        <v>-0.004125792533159256</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.09653525799512863</v>
+        <v>0.09756370633840561</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.04522759839892387</v>
+        <v>0.0492432601749897</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.0003073661064263433</v>
+        <v>-0.003312147222459316</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.001516944030299783</v>
+        <v>0.001673929975368083</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.08575964719057083</v>
+        <v>0.086996890604496</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01206405647099018</v>
+        <v>0.008112709037959576</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.04690264537930489</v>
+        <v>0.0508715808391571</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.007507335394620895</v>
+        <v>0.01066197734326124</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.003573541063815355</v>
+        <v>-0.000659161014482379</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.006477316375821829</v>
+        <v>-0.002264273120090365</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.002429105574265122</v>
+        <v>0.001118319691158831</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.005269635934382677</v>
+        <v>-0.001265213591977954</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.01309627387672663</v>
+        <v>0.01299640536308289</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.0579342395067215</v>
+        <v>-0.06170247867703438</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.0001775387354427949</v>
+        <v>-0.003039704635739326</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0823126956820488</v>
+        <v>0.08158267289400101</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.002128958934918046</v>
+        <v>0.004238473251461983</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.02839763648808002</v>
+        <v>0.02945603989064693</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.02224593795835972</v>
+        <v>-0.02171960100531578</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.09278552979230881</v>
+        <v>-0.08809932321310043</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.009108150377869606</v>
+        <v>0.01067711226642132</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.004999567288905382</v>
+        <v>-0.006350107956677675</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.03514595329761505</v>
+        <v>0.03929977118968964</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.02578064426779747</v>
+        <v>0.0238713975995779</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.005192586686462164</v>
+        <v>-0.004936506506055593</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.08803045749664307</v>
+        <v>-0.08983716368675232</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.04124854877591133</v>
+        <v>0.04281043633818626</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.1954376995563507</v>
+        <v>-0.1963678002357483</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.01556157600134611</v>
+        <v>0.01181369926780462</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.01042871363461018</v>
+        <v>-0.01024350058287382</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.02002351358532906</v>
+        <v>0.02057300321757793</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.001670450321398675</v>
+        <v>-0.002044860040768981</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.006510731764137745</v>
+        <v>-0.005003863945603371</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.01158555690199137</v>
+        <v>-0.01449592132121325</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.02269626408815384</v>
+        <v>-0.01876496337354183</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.01465773861855268</v>
+        <v>0.01090110838413239</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.008278555236756802</v>
+        <v>0.01082615181803703</v>
       </c>
       <c r="CT2" t="n">
-        <v>-7.602881669299677e-05</v>
+        <v>0.001287361490540206</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.02360278926789761</v>
+        <v>-0.02053348533809185</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.005001972895115614</v>
+        <v>-0.008410248905420303</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.05863654613494873</v>
+        <v>-0.05652673169970512</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.01304707862436771</v>
+        <v>0.0167340487241745</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.02546906657516956</v>
+        <v>-0.02706451341509819</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.01324683148413897</v>
+        <v>-0.009740715846419334</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.09761786460876465</v>
+        <v>-0.09749804437160492</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.05121785029768944</v>
+        <v>-0.05438819155097008</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.001603628857992589</v>
+        <v>0.002904601860791445</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.01496389601379633</v>
+        <v>-0.01810656860470772</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.006618026178330183</v>
+        <v>-0.004100246820598841</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.069449283182621</v>
+        <v>-0.07223602384328842</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.002956409472972155</v>
+        <v>-0.004899539519101381</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.02356701716780663</v>
+        <v>0.02633290179073811</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.01552714966237545</v>
+        <v>-0.01943072304129601</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.01881307549774647</v>
+        <v>0.02032103575766087</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.04062069207429886</v>
+        <v>-0.03751004487276077</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.1207316145300865</v>
+        <v>-0.1221878007054329</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.06750443577766418</v>
+        <v>0.06978307664394379</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01039918977767229</v>
+        <v>0.01165987364947796</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.01399799715727568</v>
+        <v>0.0163350198417902</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.04215843230485916</v>
+        <v>0.0416991263628006</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.001953430008143187</v>
+        <v>0.004101457539945841</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.003302973695099354</v>
+        <v>0.006624502595514059</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.06653179973363876</v>
+        <v>0.0635884553194046</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.02965961024165154</v>
+        <v>-0.03280243650078773</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.01411911845207214</v>
+        <v>-0.01334297470748425</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.01592389680445194</v>
+        <v>-0.0127342976629734</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.004010350909084082</v>
+        <v>0.0006625471287406981</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.07836740463972092</v>
+        <v>0.08088799566030502</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.01188989449292421</v>
+        <v>-0.006953256204724312</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.00611887825652957</v>
+        <v>-0.002665359992533922</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.1754244714975357</v>
+        <v>0.1729229390621185</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.09477421641349792</v>
+        <v>-0.09348668903112411</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.0181359201669693</v>
+        <v>-0.01456343661993742</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.1296549141407013</v>
+        <v>0.1306270062923431</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.02178564853966236</v>
+        <v>-0.02025265246629715</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.08868250250816345</v>
+        <v>-0.08622121810913086</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.01518598664551973</v>
+        <v>0.01846399903297424</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0222138911485672</v>
+        <v>0.01869014278054237</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.05858660116791725</v>
+        <v>0.05965496599674225</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.05869310721755028</v>
+        <v>0.05789140611886978</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.01231058593839407</v>
+        <v>0.01264296937733889</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.007018744479864836</v>
+        <v>0.009000063873827457</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.04953682422637939</v>
+        <v>-0.04866973310709</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.04099490866065025</v>
+        <v>-0.03911391273140907</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.07639902085065842</v>
+        <v>0.07628441601991653</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.02650823444128036</v>
+        <v>0.02894551120698452</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.01531775109469891</v>
+        <v>0.01949312724173069</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.006125815212726593</v>
+        <v>0.002378123113885522</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.07843292504549026</v>
+        <v>-0.08024919033050537</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.03995044901967049</v>
+        <v>0.03554292768239975</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.04188650846481323</v>
+        <v>-0.04445434734225273</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.1753132045269012</v>
+        <v>-0.1763882786035538</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.1249003037810326</v>
+        <v>0.1285567134618759</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0005616614362224936</v>
+        <v>0.004608387127518654</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01563600637018681</v>
+        <v>0.0163706298917532</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.188296303153038</v>
+        <v>-0.1926998943090439</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.01574021764099598</v>
+        <v>-0.01137916836887598</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.01124382857233286</v>
+        <v>-0.008868706412613392</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.001591219916008413</v>
+        <v>0.004058400169014931</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.002336408942937851</v>
+        <v>0.001396381878294051</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.04424020648002625</v>
+        <v>-0.04709088057279587</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.06581105291843414</v>
+        <v>-0.0645725354552269</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1123595386743546</v>
+        <v>-0.1153120324015617</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.001010539825074375</v>
+        <v>-0.004995084833353758</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.03505486622452736</v>
+        <v>0.03156809136271477</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.01922506280243397</v>
+        <v>0.01526191085577011</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.07622195780277252</v>
+        <v>0.07286089658737183</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.06748083233833313</v>
+        <v>-0.06318113952875137</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.007219250313937664</v>
+        <v>0.003403089940547943</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.03431252390146255</v>
+        <v>0.03446948155760765</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.002211342100054026</v>
+        <v>0.0006603365764021873</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0230464730411768</v>
+        <v>0.01905194483697414</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.002680698409676552</v>
+        <v>0.004659909754991531</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0009383654687553644</v>
+        <v>0.003203955478966236</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.005744761787354946</v>
+        <v>0.006310693919658661</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0005607773782685399</v>
+        <v>0.001817040960304439</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.02040840685367584</v>
+        <v>-0.01935401186347008</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.04658197239041328</v>
+        <v>-0.04756816104054451</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.06516658514738083</v>
+        <v>-0.06424884498119354</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.01465495768934488</v>
+        <v>0.01333055179566145</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.002052723430097103</v>
+        <v>-0.001225759042426944</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.007772485259920359</v>
+        <v>0.01081022527068853</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.07001985609531403</v>
+        <v>-0.07076350599527359</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.009250864386558533</v>
+        <v>0.00841163843870163</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.004654085263609886</v>
+        <v>-0.001058900495991111</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.01790552400052547</v>
+        <v>0.02165256813168526</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.008401960134506226</v>
+        <v>-0.006547375582158566</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.03548401221632957</v>
+        <v>-0.03884440287947655</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.01528566982597113</v>
+        <v>-0.01831512898206711</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.001959207002073526</v>
+        <v>0.001385237323120236</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.04817549139261246</v>
+        <v>-0.04454528167843819</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.02194325812160969</v>
+        <v>0.01850099675357342</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.006051831413060427</v>
+        <v>-0.0100567527115345</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.1022605746984482</v>
+        <v>-0.1060928627848625</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.09027985483407974</v>
+        <v>0.08789007365703583</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.0203360989689827</v>
+        <v>0.0243560578674078</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.1179549694061279</v>
+        <v>0.1141616702079773</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.08336285501718521</v>
+        <v>-0.0807059183716774</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.01158443838357925</v>
+        <v>-0.00766853941604495</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.002114509930834174</v>
+        <v>0.002374984556809068</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.0441143661737442</v>
+        <v>-0.04180130362510681</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.002476178109645844</v>
+        <v>-0.005812149960547686</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.009955266490578651</v>
+        <v>-0.0120170246809721</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.001626660930924118</v>
+        <v>-0.00125153036788106</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.01471713185310364</v>
+        <v>0.01812310516834259</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.00419662008062005</v>
+        <v>-0.005484004504978657</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.004252948798239231</v>
+        <v>0.00573089299723506</v>
       </c>
     </row>
   </sheetData>
